--- a/BackTest/2019-10-30 BackTest DAD.xlsx
+++ b/BackTest/2019-10-30 BackTest DAD.xlsx
@@ -451,20 +451,14 @@
         <v>455.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>455</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>455.35</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>458</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>455.55</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>458</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>455.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>458</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>455.75</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>460</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>455.95</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>457</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>456.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>461</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>456.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>460</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>456.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>459</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>456.55</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>458</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>456.65</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>458</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>456.75</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>457</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>457.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>459</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>457.35</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>459</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>457.65</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>457</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>457.95</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>457</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>457.75</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>456</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>457.7</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>455</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>457.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>453</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>457.45</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>454</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>457.45</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>455</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>457.35</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>456</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>457.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>455</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>457.05</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>455</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>456.85</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>456</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>456.8</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>456</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>456.6</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>457</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>456.45</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>457</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>456.35</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>457</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>456.3</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>457</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>456.25</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>457</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>456.25</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>457</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>456.2</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>458</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>456.15</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>458</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>456.25</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>459</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1886,20 +1676,14 @@
         <v>456.35</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>459</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1927,20 +1711,14 @@
         <v>456.55</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>460</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1968,20 +1746,14 @@
         <v>456.8</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>460</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2009,20 +1781,14 @@
         <v>457.25</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>462</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2050,20 +1816,14 @@
         <v>457.7</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>463</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2098,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2137,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2176,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2215,12 +1963,10 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2283,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2318,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2528,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2563,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -3400,20 +3146,14 @@
         <v>465.9</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>459</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3448,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3526,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3565,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3604,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3643,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3682,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3721,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3799,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3838,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3877,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3955,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3994,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4033,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4065,20 +3741,14 @@
         <v>460.4</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>456</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4106,20 +3776,14 @@
         <v>460.4</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>456</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4147,20 +3811,14 @@
         <v>460.4</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>457</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4199,7 +3857,7 @@
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -4270,14 +3928,12 @@
         <v>459.7</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>458</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4311,14 +3967,12 @@
         <v>459.3</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>460</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4352,14 +4006,12 @@
         <v>459.15</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>463</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -7045,14 +6697,12 @@
         <v>460</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>458</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -7086,14 +6736,12 @@
         <v>459.8</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>458</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -7127,14 +6775,12 @@
         <v>459.8</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>458</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -7168,14 +6814,12 @@
         <v>459.75</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>457</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -7209,14 +6853,12 @@
         <v>459.5</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>457</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -7250,14 +6892,12 @@
         <v>459.45</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>457</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -7291,14 +6931,12 @@
         <v>459.2</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>457</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -7332,14 +6970,12 @@
         <v>458.95</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>457</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -7373,14 +7009,12 @@
         <v>458.7</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>457</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -7414,14 +7048,12 @@
         <v>458.55</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>458</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -7455,14 +7087,12 @@
         <v>458.45</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>458</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -7496,14 +7126,12 @@
         <v>458.35</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>458</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -7537,14 +7165,12 @@
         <v>458.3</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>459</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -7578,14 +7204,12 @@
         <v>458.2</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>458</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
@@ -7619,14 +7243,12 @@
         <v>458.1</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>458</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
@@ -7660,14 +7282,12 @@
         <v>458</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>458</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
@@ -7701,14 +7321,12 @@
         <v>457.95</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>459</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
@@ -7742,14 +7360,12 @@
         <v>457.9</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>459</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
@@ -7783,14 +7399,12 @@
         <v>457.8</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>457</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
@@ -7824,14 +7438,12 @@
         <v>457.75</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>457</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -7865,14 +7477,12 @@
         <v>457.7</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>457</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
@@ -7906,14 +7516,12 @@
         <v>457.75</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>459</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
@@ -7947,14 +7555,12 @@
         <v>457.75</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>458</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -7988,14 +7594,12 @@
         <v>457.8</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>458</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -8029,14 +7633,12 @@
         <v>457.85</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>458</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
@@ -8070,14 +7672,12 @@
         <v>457.9</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>458</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
@@ -8111,14 +7711,12 @@
         <v>457.9</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>457</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
@@ -8152,14 +7750,12 @@
         <v>457.9</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>457</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
@@ -8193,14 +7789,12 @@
         <v>457.95</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>458</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -8234,14 +7828,12 @@
         <v>457.95</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>458</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
@@ -8275,14 +7867,12 @@
         <v>457.95</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>458</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
@@ -8316,14 +7906,12 @@
         <v>457.9</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>457</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
@@ -8357,14 +7945,12 @@
         <v>457.9</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>459</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -8398,14 +7984,12 @@
         <v>457.9</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>458</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
@@ -8439,14 +8023,12 @@
         <v>457.85</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>457</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
@@ -8480,14 +8062,12 @@
         <v>457.9</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>459</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
@@ -8521,14 +8101,12 @@
         <v>457.9</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>459</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
@@ -8562,14 +8140,12 @@
         <v>457.9</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>459</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
@@ -8603,14 +8179,12 @@
         <v>458</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>459</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
@@ -8644,14 +8218,12 @@
         <v>458.1</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>459</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
@@ -8685,14 +8257,12 @@
         <v>458.2</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>459</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -8726,14 +8296,12 @@
         <v>458.2</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>459</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -8767,14 +8335,12 @@
         <v>458.25</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>459</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -8808,14 +8374,12 @@
         <v>458.3</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>459</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
@@ -8849,14 +8413,12 @@
         <v>458.35</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>459</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8890,14 +8452,12 @@
         <v>458.45</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>460</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -8931,14 +8491,12 @@
         <v>458.6</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>460</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
@@ -8972,14 +8530,12 @@
         <v>458.75</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>460</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
@@ -9013,14 +8569,12 @@
         <v>459</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>463</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
@@ -9054,14 +8608,12 @@
         <v>459.55</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>469</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
@@ -9254,16 +8806,18 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M226" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9295,7 +8849,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9330,7 +8888,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +8927,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9400,7 +8966,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9435,7 +9005,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9470,7 +9044,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9505,7 +9083,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9540,7 +9122,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9575,7 +9161,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9610,7 +9200,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9645,7 +9239,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9680,7 +9278,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9715,7 +9317,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9750,7 +9356,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9785,7 +9395,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9820,7 +9434,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9855,7 +9473,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9890,7 +9512,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9925,7 +9551,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9960,7 +9590,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9995,7 +9629,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10030,7 +9668,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10065,7 +9707,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10100,7 +9746,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10135,7 +9785,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10170,7 +9824,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10205,7 +9863,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10240,7 +9902,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest DAD.xlsx
+++ b/BackTest/2019-10-30 BackTest DAD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>455</v>
       </c>
       <c r="C2" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D2" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E2" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F2" t="n">
-        <v>10504.476764923</v>
+        <v>494.000906113</v>
       </c>
       <c r="G2" t="n">
-        <v>455.2</v>
+        <v>458.35</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C3" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D3" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E3" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F3" t="n">
-        <v>83.12390000000001</v>
+        <v>10504.476764923</v>
       </c>
       <c r="G3" t="n">
-        <v>455.35</v>
+        <v>458.1333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>458</v>
       </c>
       <c r="C4" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D4" t="n">
         <v>458</v>
       </c>
       <c r="E4" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F4" t="n">
-        <v>1019.2701</v>
+        <v>83.12390000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>455.55</v>
+        <v>457.95</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>458</v>
       </c>
       <c r="C5" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D5" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E5" t="n">
         <v>458</v>
       </c>
       <c r="F5" t="n">
-        <v>2496.9195</v>
+        <v>1019.2701</v>
       </c>
       <c r="G5" t="n">
-        <v>455.6</v>
+        <v>457.7833333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>458</v>
+      </c>
+      <c r="C6" t="n">
         <v>460</v>
-      </c>
-      <c r="C6" t="n">
-        <v>458</v>
       </c>
       <c r="D6" t="n">
         <v>460</v>
@@ -585,10 +585,10 @@
         <v>458</v>
       </c>
       <c r="F6" t="n">
-        <v>535.0617999999999</v>
+        <v>2496.9195</v>
       </c>
       <c r="G6" t="n">
-        <v>455.75</v>
+        <v>457.5166666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C7" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D7" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E7" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F7" t="n">
-        <v>6473.3455</v>
+        <v>535.0617999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>455.95</v>
+        <v>457.3166666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C8" t="n">
         <v>461</v>
       </c>
       <c r="D8" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E8" t="n">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F8" t="n">
-        <v>8091.6179</v>
+        <v>6473.3455</v>
       </c>
       <c r="G8" t="n">
-        <v>456.1</v>
+        <v>457.1333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C9" t="n">
         <v>461</v>
       </c>
       <c r="D9" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E9" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F9" t="n">
-        <v>4595.5043</v>
+        <v>8091.6179</v>
       </c>
       <c r="G9" t="n">
-        <v>456.4</v>
+        <v>456.9833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C10" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D10" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E10" t="n">
         <v>458</v>
       </c>
       <c r="F10" t="n">
-        <v>4884.7586</v>
+        <v>4595.5043</v>
       </c>
       <c r="G10" t="n">
-        <v>456.5</v>
+        <v>456.8833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,10 +748,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C11" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D11" t="n">
         <v>459</v>
@@ -760,10 +760,10 @@
         <v>458</v>
       </c>
       <c r="F11" t="n">
-        <v>4912.0165</v>
+        <v>4884.7586</v>
       </c>
       <c r="G11" t="n">
-        <v>456.55</v>
+        <v>456.75</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>458</v>
       </c>
       <c r="C12" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D12" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E12" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F12" t="n">
-        <v>5968.2287</v>
+        <v>4912.0165</v>
       </c>
       <c r="G12" t="n">
-        <v>456.65</v>
+        <v>456.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C13" t="n">
         <v>457</v>
       </c>
       <c r="D13" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E13" t="n">
         <v>457</v>
       </c>
       <c r="F13" t="n">
-        <v>689.9704</v>
+        <v>5968.2287</v>
       </c>
       <c r="G13" t="n">
-        <v>456.75</v>
+        <v>456.5166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C14" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D14" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E14" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F14" t="n">
-        <v>1446.6252</v>
+        <v>689.9704</v>
       </c>
       <c r="G14" t="n">
-        <v>457.1</v>
+        <v>456.4666666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>459</v>
       </c>
       <c r="C15" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D15" t="n">
         <v>459</v>
       </c>
       <c r="E15" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F15" t="n">
-        <v>11.991285403</v>
+        <v>1446.6252</v>
       </c>
       <c r="G15" t="n">
-        <v>457.35</v>
+        <v>456.4166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C16" t="n">
         <v>457</v>
       </c>
       <c r="D16" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E16" t="n">
         <v>457</v>
       </c>
       <c r="F16" t="n">
-        <v>2824.0378</v>
+        <v>11.991285403</v>
       </c>
       <c r="G16" t="n">
-        <v>457.65</v>
+        <v>456.45</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>457</v>
       </c>
       <c r="C17" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D17" t="n">
         <v>457</v>
       </c>
       <c r="E17" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F17" t="n">
-        <v>3635.9074</v>
+        <v>2824.0378</v>
       </c>
       <c r="G17" t="n">
-        <v>457.95</v>
+        <v>456.35</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>457</v>
+      </c>
+      <c r="C18" t="n">
         <v>456</v>
       </c>
-      <c r="C18" t="n">
-        <v>455</v>
-      </c>
       <c r="D18" t="n">
+        <v>457</v>
+      </c>
+      <c r="E18" t="n">
         <v>456</v>
       </c>
-      <c r="E18" t="n">
-        <v>455</v>
-      </c>
       <c r="F18" t="n">
-        <v>6082.1157</v>
+        <v>3635.9074</v>
       </c>
       <c r="G18" t="n">
-        <v>457.75</v>
+        <v>456.2833333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>456</v>
+      </c>
+      <c r="C19" t="n">
         <v>455</v>
       </c>
-      <c r="C19" t="n">
-        <v>453</v>
-      </c>
       <c r="D19" t="n">
+        <v>456</v>
+      </c>
+      <c r="E19" t="n">
         <v>455</v>
       </c>
-      <c r="E19" t="n">
-        <v>453</v>
-      </c>
       <c r="F19" t="n">
-        <v>6295.7879</v>
+        <v>6082.1157</v>
       </c>
       <c r="G19" t="n">
-        <v>457.7</v>
+        <v>456.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>455</v>
+      </c>
+      <c r="C20" t="n">
         <v>453</v>
       </c>
-      <c r="C20" t="n">
-        <v>454</v>
-      </c>
       <c r="D20" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E20" t="n">
         <v>453</v>
       </c>
       <c r="F20" t="n">
-        <v>808961.6074</v>
+        <v>6295.7879</v>
       </c>
       <c r="G20" t="n">
-        <v>457.5</v>
+        <v>456.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>453</v>
+      </c>
+      <c r="C21" t="n">
         <v>454</v>
       </c>
-      <c r="C21" t="n">
-        <v>455</v>
-      </c>
       <c r="D21" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E21" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F21" t="n">
-        <v>2784026.545</v>
+        <v>808961.6074</v>
       </c>
       <c r="G21" t="n">
-        <v>457.45</v>
+        <v>456</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>454</v>
+      </c>
+      <c r="C22" t="n">
         <v>455</v>
       </c>
-      <c r="C22" t="n">
-        <v>456</v>
-      </c>
       <c r="D22" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E22" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F22" t="n">
-        <v>1921189.8897</v>
+        <v>2784026.545</v>
       </c>
       <c r="G22" t="n">
-        <v>457.45</v>
+        <v>455.95</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>455</v>
+      </c>
+      <c r="C23" t="n">
         <v>456</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
+        <v>456</v>
+      </c>
+      <c r="E23" t="n">
         <v>455</v>
       </c>
-      <c r="D23" t="n">
-        <v>457</v>
-      </c>
-      <c r="E23" t="n">
-        <v>453</v>
-      </c>
       <c r="F23" t="n">
-        <v>6260.871519037</v>
+        <v>1921189.8897</v>
       </c>
       <c r="G23" t="n">
-        <v>457.35</v>
+        <v>456.0333333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C24" t="n">
         <v>455</v>
       </c>
       <c r="D24" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E24" t="n">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F24" t="n">
-        <v>494200</v>
+        <v>6260.871519037</v>
       </c>
       <c r="G24" t="n">
-        <v>457.2</v>
+        <v>456.0833333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>455</v>
       </c>
       <c r="C25" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D25" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E25" t="n">
         <v>455</v>
       </c>
       <c r="F25" t="n">
-        <v>729740.1506000001</v>
+        <v>494200</v>
       </c>
       <c r="G25" t="n">
-        <v>457.05</v>
+        <v>456.1166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C26" t="n">
         <v>456</v>
       </c>
       <c r="D26" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E26" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F26" t="n">
-        <v>758731.7206</v>
+        <v>729740.1506000001</v>
       </c>
       <c r="G26" t="n">
-        <v>456.85</v>
+        <v>456.2333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>456</v>
       </c>
       <c r="C27" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D27" t="n">
         <v>457</v>
@@ -1320,10 +1320,10 @@
         <v>456</v>
       </c>
       <c r="F27" t="n">
-        <v>628768.5653</v>
+        <v>758731.7206</v>
       </c>
       <c r="G27" t="n">
-        <v>456.8</v>
+        <v>456.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C28" t="n">
         <v>457</v>
@@ -1352,13 +1352,13 @@
         <v>457</v>
       </c>
       <c r="E28" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F28" t="n">
-        <v>1157202.691329759</v>
+        <v>628768.5653</v>
       </c>
       <c r="G28" t="n">
-        <v>456.6</v>
+        <v>456.55</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>457</v>
       </c>
       <c r="D29" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E29" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F29" t="n">
-        <v>2813916.662290393</v>
+        <v>1157202.691329759</v>
       </c>
       <c r="G29" t="n">
-        <v>456.45</v>
+        <v>456.6333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>457</v>
       </c>
       <c r="F30" t="n">
-        <v>4026177.4175</v>
+        <v>2813916.662290393</v>
       </c>
       <c r="G30" t="n">
-        <v>456.35</v>
+        <v>456.65</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>457</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E31" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F31" t="n">
-        <v>4130382.8316</v>
+        <v>4026177.4175</v>
       </c>
       <c r="G31" t="n">
-        <v>456.3</v>
+        <v>456.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1492,13 +1492,13 @@
         <v>457</v>
       </c>
       <c r="E32" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F32" t="n">
-        <v>3645972.2479</v>
+        <v>4130382.8316</v>
       </c>
       <c r="G32" t="n">
-        <v>456.25</v>
+        <v>456.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>457</v>
       </c>
       <c r="C33" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D33" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E33" t="n">
         <v>457</v>
       </c>
       <c r="F33" t="n">
-        <v>1368791.992009607</v>
+        <v>3645972.2479</v>
       </c>
       <c r="G33" t="n">
-        <v>456.25</v>
+        <v>456.4166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C34" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D34" t="n">
         <v>459</v>
       </c>
       <c r="E34" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F34" t="n">
-        <v>2080196.7889</v>
+        <v>1368791.992009607</v>
       </c>
       <c r="G34" t="n">
-        <v>456.2</v>
+        <v>456.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>458</v>
       </c>
       <c r="C35" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D35" t="n">
         <v>459</v>
       </c>
       <c r="E35" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F35" t="n">
-        <v>891863.806</v>
+        <v>2080196.7889</v>
       </c>
       <c r="G35" t="n">
-        <v>456.15</v>
+        <v>456.4166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C36" t="n">
         <v>459</v>
       </c>
       <c r="D36" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E36" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F36" t="n">
-        <v>2013822.074714597</v>
+        <v>891863.806</v>
       </c>
       <c r="G36" t="n">
-        <v>456.25</v>
+        <v>456.4333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>459</v>
       </c>
       <c r="C37" t="n">
+        <v>459</v>
+      </c>
+      <c r="D37" t="n">
         <v>460</v>
       </c>
-      <c r="D37" t="n">
-        <v>461</v>
-      </c>
       <c r="E37" t="n">
         <v>459</v>
       </c>
       <c r="F37" t="n">
-        <v>868800.871517353</v>
+        <v>2013822.074714597</v>
       </c>
       <c r="G37" t="n">
-        <v>456.35</v>
+        <v>456.4666666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C38" t="n">
         <v>460</v>
@@ -1702,13 +1702,13 @@
         <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F38" t="n">
-        <v>1609912.5127</v>
+        <v>868800.871517353</v>
       </c>
       <c r="G38" t="n">
-        <v>456.55</v>
+        <v>456.4833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>460</v>
       </c>
       <c r="C39" t="n">
+        <v>460</v>
+      </c>
+      <c r="D39" t="n">
         <v>461</v>
-      </c>
-      <c r="D39" t="n">
-        <v>462</v>
       </c>
       <c r="E39" t="n">
         <v>460</v>
       </c>
       <c r="F39" t="n">
-        <v>144143.410782647</v>
+        <v>1609912.5127</v>
       </c>
       <c r="G39" t="n">
-        <v>456.8</v>
+        <v>456.5333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>460</v>
+      </c>
+      <c r="C40" t="n">
+        <v>461</v>
+      </c>
+      <c r="D40" t="n">
         <v>462</v>
       </c>
-      <c r="C40" t="n">
-        <v>462</v>
-      </c>
-      <c r="D40" t="n">
-        <v>463</v>
-      </c>
       <c r="E40" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F40" t="n">
-        <v>10570.936635077</v>
+        <v>144143.410782647</v>
       </c>
       <c r="G40" t="n">
-        <v>457.25</v>
+        <v>456.6833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>462</v>
+      </c>
+      <c r="C41" t="n">
+        <v>462</v>
+      </c>
+      <c r="D41" t="n">
         <v>463</v>
       </c>
-      <c r="C41" t="n">
-        <v>466</v>
-      </c>
-      <c r="D41" t="n">
-        <v>466</v>
-      </c>
       <c r="E41" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F41" t="n">
-        <v>15167.7855</v>
+        <v>10570.936635077</v>
       </c>
       <c r="G41" t="n">
-        <v>457.7</v>
+        <v>456.85</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C42" t="n">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D42" t="n">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E42" t="n">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F42" t="n">
-        <v>33084.959</v>
+        <v>15167.7855</v>
       </c>
       <c r="G42" t="n">
-        <v>458.3</v>
+        <v>457.05</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C43" t="n">
         <v>474</v>
       </c>
       <c r="D43" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E43" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F43" t="n">
-        <v>39093.8493</v>
+        <v>33084.959</v>
       </c>
       <c r="G43" t="n">
-        <v>459.25</v>
+        <v>457.3833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>475</v>
+      </c>
+      <c r="C44" t="n">
         <v>474</v>
       </c>
-      <c r="C44" t="n">
-        <v>470</v>
-      </c>
       <c r="D44" t="n">
+        <v>475</v>
+      </c>
+      <c r="E44" t="n">
         <v>474</v>
       </c>
-      <c r="E44" t="n">
-        <v>470</v>
-      </c>
       <c r="F44" t="n">
-        <v>6532.6407</v>
+        <v>39093.8493</v>
       </c>
       <c r="G44" t="n">
-        <v>460.2</v>
+        <v>457.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C45" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D45" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E45" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F45" t="n">
-        <v>2256.6573</v>
+        <v>6532.6407</v>
       </c>
       <c r="G45" t="n">
-        <v>460.85</v>
+        <v>457.9666666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C46" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D46" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E46" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F46" t="n">
-        <v>4024.5933</v>
+        <v>2256.6573</v>
       </c>
       <c r="G46" t="n">
-        <v>461.5</v>
+        <v>458.1166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>468</v>
       </c>
       <c r="F47" t="n">
-        <v>4345.0927</v>
+        <v>4024.5933</v>
       </c>
       <c r="G47" t="n">
-        <v>462.15</v>
+        <v>458.25</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>469</v>
+      </c>
+      <c r="C48" t="n">
         <v>468</v>
-      </c>
-      <c r="C48" t="n">
-        <v>467</v>
       </c>
       <c r="D48" t="n">
         <v>469</v>
       </c>
       <c r="E48" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F48" t="n">
-        <v>2564.807037313</v>
+        <v>4345.0927</v>
       </c>
       <c r="G48" t="n">
-        <v>462.7</v>
+        <v>458.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>468</v>
+      </c>
+      <c r="C49" t="n">
         <v>467</v>
-      </c>
-      <c r="C49" t="n">
-        <v>468</v>
       </c>
       <c r="D49" t="n">
         <v>469</v>
       </c>
       <c r="E49" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F49" t="n">
-        <v>6963.6576</v>
+        <v>2564.807037313</v>
       </c>
       <c r="G49" t="n">
-        <v>463.2</v>
+        <v>458.7166666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>467</v>
+      </c>
+      <c r="C50" t="n">
+        <v>468</v>
+      </c>
+      <c r="D50" t="n">
         <v>469</v>
       </c>
-      <c r="C50" t="n">
-        <v>471</v>
-      </c>
-      <c r="D50" t="n">
-        <v>471</v>
-      </c>
       <c r="E50" t="n">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F50" t="n">
-        <v>19965.029262687</v>
+        <v>6963.6576</v>
       </c>
       <c r="G50" t="n">
-        <v>463.8</v>
+        <v>458.8833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>469</v>
+      </c>
+      <c r="C51" t="n">
         <v>471</v>
       </c>
-      <c r="C51" t="n">
-        <v>474</v>
-      </c>
       <c r="D51" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E51" t="n">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F51" t="n">
-        <v>30611.721549263</v>
+        <v>19965.029262687</v>
       </c>
       <c r="G51" t="n">
-        <v>464.5</v>
+        <v>459.1166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>471</v>
+      </c>
+      <c r="C52" t="n">
+        <v>474</v>
+      </c>
+      <c r="D52" t="n">
         <v>475</v>
       </c>
-      <c r="C52" t="n">
-        <v>480</v>
-      </c>
-      <c r="D52" t="n">
-        <v>483</v>
-      </c>
       <c r="E52" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F52" t="n">
-        <v>70730.803350737</v>
+        <v>30611.721549263</v>
       </c>
       <c r="G52" t="n">
-        <v>465.4</v>
+        <v>459.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>475</v>
+      </c>
+      <c r="C53" t="n">
         <v>480</v>
       </c>
-      <c r="C53" t="n">
-        <v>476</v>
-      </c>
       <c r="D53" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E53" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F53" t="n">
-        <v>3670.7871</v>
+        <v>70730.803350737</v>
       </c>
       <c r="G53" t="n">
-        <v>466.55</v>
+        <v>459.8833333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,28 +2253,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C54" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D54" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E54" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F54" t="n">
-        <v>3674.8505</v>
+        <v>3670.7871</v>
       </c>
       <c r="G54" t="n">
-        <v>467.35</v>
+        <v>460.2833333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2288,28 +2288,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>474</v>
+      </c>
+      <c r="C55" t="n">
         <v>479</v>
-      </c>
-      <c r="C55" t="n">
-        <v>475</v>
       </c>
       <c r="D55" t="n">
         <v>479</v>
       </c>
       <c r="E55" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F55" t="n">
-        <v>5401.6727</v>
+        <v>3674.8505</v>
       </c>
       <c r="G55" t="n">
-        <v>468.4</v>
+        <v>460.75</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>479</v>
+      </c>
+      <c r="C56" t="n">
         <v>475</v>
-      </c>
-      <c r="C56" t="n">
-        <v>473</v>
       </c>
       <c r="D56" t="n">
         <v>479</v>
       </c>
       <c r="E56" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F56" t="n">
-        <v>3106.593433611</v>
+        <v>5401.6727</v>
       </c>
       <c r="G56" t="n">
-        <v>469.2</v>
+        <v>461.1666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C57" t="n">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D57" t="n">
         <v>479</v>
       </c>
       <c r="E57" t="n">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F57" t="n">
-        <v>12539.370650939</v>
+        <v>3106.593433611</v>
       </c>
       <c r="G57" t="n">
-        <v>470.15</v>
+        <v>461.4666666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>478</v>
+      </c>
+      <c r="C58" t="n">
         <v>479</v>
       </c>
-      <c r="C58" t="n">
-        <v>478</v>
-      </c>
       <c r="D58" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E58" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F58" t="n">
-        <v>14850.88751545</v>
+        <v>12539.370650939</v>
       </c>
       <c r="G58" t="n">
-        <v>471.1</v>
+        <v>461.9166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>479</v>
+      </c>
+      <c r="C59" t="n">
         <v>478</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>480</v>
-      </c>
-      <c r="D59" t="n">
-        <v>481</v>
       </c>
       <c r="E59" t="n">
         <v>478</v>
       </c>
       <c r="F59" t="n">
-        <v>4251.6027</v>
+        <v>14850.88751545</v>
       </c>
       <c r="G59" t="n">
-        <v>472</v>
+        <v>462.1833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C60" t="n">
         <v>480</v>
       </c>
       <c r="D60" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E60" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F60" t="n">
-        <v>43.5916</v>
+        <v>4251.6027</v>
       </c>
       <c r="G60" t="n">
-        <v>472.9</v>
+        <v>462.5333333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C61" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D61" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E61" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="F61" t="n">
-        <v>12151.6828</v>
+        <v>43.5916</v>
       </c>
       <c r="G61" t="n">
-        <v>473.65</v>
+        <v>462.9666666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>478</v>
+      </c>
+      <c r="C62" t="n">
         <v>475</v>
       </c>
-      <c r="C62" t="n">
-        <v>473</v>
-      </c>
       <c r="D62" t="n">
+        <v>478</v>
+      </c>
+      <c r="E62" t="n">
         <v>475</v>
       </c>
-      <c r="E62" t="n">
-        <v>473</v>
-      </c>
       <c r="F62" t="n">
-        <v>2023.668</v>
+        <v>12151.6828</v>
       </c>
       <c r="G62" t="n">
-        <v>474.05</v>
+        <v>463.25</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C63" t="n">
+        <v>473</v>
+      </c>
+      <c r="D63" t="n">
         <v>475</v>
       </c>
-      <c r="D63" t="n">
-        <v>477</v>
-      </c>
       <c r="E63" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F63" t="n">
-        <v>886.4087</v>
+        <v>2023.668</v>
       </c>
       <c r="G63" t="n">
-        <v>474.15</v>
+        <v>463.4333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>477</v>
+      </c>
+      <c r="C64" t="n">
         <v>475</v>
       </c>
-      <c r="C64" t="n">
-        <v>474</v>
-      </c>
       <c r="D64" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E64" t="n">
         <v>474</v>
       </c>
       <c r="F64" t="n">
-        <v>725.6802</v>
+        <v>886.4087</v>
       </c>
       <c r="G64" t="n">
-        <v>474.2</v>
+        <v>463.7333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>475</v>
+      </c>
+      <c r="C65" t="n">
         <v>474</v>
       </c>
-      <c r="C65" t="n">
-        <v>470</v>
-      </c>
       <c r="D65" t="n">
+        <v>475</v>
+      </c>
+      <c r="E65" t="n">
         <v>474</v>
       </c>
-      <c r="E65" t="n">
-        <v>470</v>
-      </c>
       <c r="F65" t="n">
-        <v>10339.0337</v>
+        <v>725.6802</v>
       </c>
       <c r="G65" t="n">
-        <v>474.5</v>
+        <v>464</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C66" t="n">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D66" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E66" t="n">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F66" t="n">
-        <v>4832.952290486</v>
+        <v>10339.0337</v>
       </c>
       <c r="G66" t="n">
-        <v>474.7</v>
+        <v>464.1666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C67" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D67" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E67" t="n">
         <v>472</v>
       </c>
       <c r="F67" t="n">
-        <v>1139.4832</v>
+        <v>4832.952290486</v>
       </c>
       <c r="G67" t="n">
-        <v>474.85</v>
+        <v>464.4166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C68" t="n">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D68" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E68" t="n">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F68" t="n">
-        <v>5764.1785</v>
+        <v>1139.4832</v>
       </c>
       <c r="G68" t="n">
-        <v>474.95</v>
+        <v>464.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>470</v>
+      </c>
+      <c r="C69" t="n">
         <v>466</v>
       </c>
-      <c r="C69" t="n">
-        <v>463</v>
-      </c>
       <c r="D69" t="n">
+        <v>470</v>
+      </c>
+      <c r="E69" t="n">
         <v>466</v>
       </c>
-      <c r="E69" t="n">
-        <v>463</v>
-      </c>
       <c r="F69" t="n">
-        <v>5221.1802</v>
+        <v>5764.1785</v>
       </c>
       <c r="G69" t="n">
-        <v>474.9</v>
+        <v>464.6833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>466</v>
+      </c>
+      <c r="C70" t="n">
         <v>463</v>
       </c>
-      <c r="C70" t="n">
-        <v>460</v>
-      </c>
       <c r="D70" t="n">
+        <v>466</v>
+      </c>
+      <c r="E70" t="n">
         <v>463</v>
       </c>
-      <c r="E70" t="n">
-        <v>460</v>
-      </c>
       <c r="F70" t="n">
-        <v>34882.7273</v>
+        <v>5221.1802</v>
       </c>
       <c r="G70" t="n">
-        <v>474.6</v>
+        <v>464.7166666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C71" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D71" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E71" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F71" t="n">
-        <v>1947.1018</v>
+        <v>34882.7273</v>
       </c>
       <c r="G71" t="n">
-        <v>473.9</v>
+        <v>464.7333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C72" t="n">
         <v>462</v>
       </c>
       <c r="D72" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E72" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F72" t="n">
-        <v>11218.646450107</v>
+        <v>1947.1018</v>
       </c>
       <c r="G72" t="n">
-        <v>473.05</v>
+        <v>464.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C73" t="n">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D73" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E73" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F73" t="n">
-        <v>6726.1403</v>
+        <v>11218.646450107</v>
       </c>
       <c r="G73" t="n">
-        <v>472.05</v>
+        <v>464.8833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C74" t="n">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D74" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E74" t="n">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F74" t="n">
-        <v>21790.9416</v>
+        <v>6726.1403</v>
       </c>
       <c r="G74" t="n">
-        <v>471.25</v>
+        <v>464.9166666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,32 +2988,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C75" t="n">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D75" t="n">
         <v>458</v>
       </c>
       <c r="E75" t="n">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F75" t="n">
-        <v>905.5431</v>
+        <v>21790.9416</v>
       </c>
       <c r="G75" t="n">
-        <v>470.05</v>
+        <v>464.8</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>459</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3029,26 +3035,32 @@
         <v>455</v>
       </c>
       <c r="D76" t="n">
+        <v>458</v>
+      </c>
+      <c r="E76" t="n">
         <v>455</v>
       </c>
-      <c r="E76" t="n">
-        <v>453</v>
-      </c>
       <c r="F76" t="n">
-        <v>6503.9048</v>
+        <v>905.5431</v>
       </c>
       <c r="G76" t="n">
-        <v>469.05</v>
+        <v>464.7666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>452</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,32 +3070,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C77" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D77" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E77" t="n">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F77" t="n">
-        <v>876147.3589</v>
+        <v>6503.9048</v>
       </c>
       <c r="G77" t="n">
-        <v>467.95</v>
+        <v>464.7333333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>455</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3111,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C78" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D78" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E78" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F78" t="n">
-        <v>348707.1363</v>
+        <v>876147.3589</v>
       </c>
       <c r="G78" t="n">
-        <v>466.85</v>
+        <v>464.75</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3136,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,32 +3150,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C79" t="n">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D79" t="n">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E79" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F79" t="n">
-        <v>27634.2537</v>
+        <v>348707.1363</v>
       </c>
       <c r="G79" t="n">
-        <v>465.9</v>
+        <v>464.8166666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>457</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,32 +3191,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>459</v>
+      </c>
+      <c r="C80" t="n">
         <v>463</v>
       </c>
-      <c r="C80" t="n">
-        <v>468</v>
-      </c>
       <c r="D80" t="n">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E80" t="n">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F80" t="n">
-        <v>87551.7981</v>
+        <v>27634.2537</v>
       </c>
       <c r="G80" t="n">
-        <v>465.05</v>
+        <v>464.9833333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>459</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,7 +3232,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C81" t="n">
         <v>468</v>
@@ -3207,13 +3241,13 @@
         <v>468</v>
       </c>
       <c r="E81" t="n">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F81" t="n">
-        <v>322895.779100854</v>
+        <v>87551.7981</v>
       </c>
       <c r="G81" t="n">
-        <v>464.55</v>
+        <v>465.2166666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3257,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3236,19 +3274,19 @@
         <v>468</v>
       </c>
       <c r="C82" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D82" t="n">
         <v>468</v>
       </c>
       <c r="E82" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F82" t="n">
-        <v>2343633.2153</v>
+        <v>322895.779100854</v>
       </c>
       <c r="G82" t="n">
-        <v>464.2</v>
+        <v>465.4333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3296,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3310,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C83" t="n">
         <v>466</v>
       </c>
       <c r="D83" t="n">
+        <v>468</v>
+      </c>
+      <c r="E83" t="n">
         <v>466</v>
       </c>
-      <c r="E83" t="n">
-        <v>461</v>
-      </c>
       <c r="F83" t="n">
-        <v>3025043.746</v>
+        <v>2343633.2153</v>
       </c>
       <c r="G83" t="n">
-        <v>463.65</v>
+        <v>465.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3335,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3349,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C84" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D84" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E84" t="n">
         <v>461</v>
       </c>
       <c r="F84" t="n">
-        <v>1814077.2507</v>
+        <v>3025043.746</v>
       </c>
       <c r="G84" t="n">
-        <v>463</v>
+        <v>465.7833333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3374,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3388,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C85" t="n">
         <v>462</v>
       </c>
       <c r="D85" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E85" t="n">
         <v>461</v>
       </c>
       <c r="F85" t="n">
-        <v>1411532.1006</v>
+        <v>1814077.2507</v>
       </c>
       <c r="G85" t="n">
-        <v>462.35</v>
+        <v>465.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3413,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3427,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>461</v>
+      </c>
+      <c r="C86" t="n">
         <v>462</v>
       </c>
-      <c r="C86" t="n">
-        <v>461</v>
-      </c>
       <c r="D86" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E86" t="n">
         <v>461</v>
       </c>
       <c r="F86" t="n">
-        <v>695616.5509</v>
+        <v>1411532.1006</v>
       </c>
       <c r="G86" t="n">
-        <v>461.8</v>
+        <v>466</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3452,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3466,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>462</v>
+      </c>
+      <c r="C87" t="n">
         <v>461</v>
       </c>
-      <c r="C87" t="n">
-        <v>455</v>
-      </c>
       <c r="D87" t="n">
+        <v>462</v>
+      </c>
+      <c r="E87" t="n">
         <v>461</v>
       </c>
-      <c r="E87" t="n">
-        <v>455</v>
-      </c>
       <c r="F87" t="n">
-        <v>2514.5518</v>
+        <v>695616.5509</v>
       </c>
       <c r="G87" t="n">
-        <v>461.25</v>
+        <v>466.0833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3491,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3446,19 +3508,19 @@
         <v>461</v>
       </c>
       <c r="C88" t="n">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D88" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E88" t="n">
         <v>455</v>
       </c>
       <c r="F88" t="n">
-        <v>17581.8235</v>
+        <v>2514.5518</v>
       </c>
       <c r="G88" t="n">
-        <v>460.8</v>
+        <v>466.05</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3530,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3544,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C89" t="n">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D89" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E89" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F89" t="n">
-        <v>2038.656</v>
+        <v>17581.8235</v>
       </c>
       <c r="G89" t="n">
-        <v>460.5</v>
+        <v>466.1333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3569,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3583,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C90" t="n">
+        <v>456</v>
+      </c>
+      <c r="D90" t="n">
         <v>460</v>
       </c>
-      <c r="D90" t="n">
-        <v>461</v>
-      </c>
       <c r="E90" t="n">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F90" t="n">
-        <v>327.413043478</v>
+        <v>2038.656</v>
       </c>
       <c r="G90" t="n">
-        <v>460.3</v>
+        <v>466.1166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3608,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3622,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C91" t="n">
         <v>460</v>
       </c>
       <c r="D91" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E91" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F91" t="n">
-        <v>50</v>
+        <v>327.413043478</v>
       </c>
       <c r="G91" t="n">
-        <v>460.45</v>
+        <v>466.1666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3647,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3661,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C92" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D92" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E92" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F92" t="n">
-        <v>2266</v>
+        <v>50</v>
       </c>
       <c r="G92" t="n">
-        <v>460.45</v>
+        <v>466.2166666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3686,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3621,19 +3703,19 @@
         <v>458</v>
       </c>
       <c r="C93" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D93" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E93" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F93" t="n">
-        <v>7576.0921</v>
+        <v>2266</v>
       </c>
       <c r="G93" t="n">
-        <v>460.35</v>
+        <v>466.2333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3725,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3739,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C94" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D94" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E94" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F94" t="n">
-        <v>5877.57</v>
+        <v>7576.0921</v>
       </c>
       <c r="G94" t="n">
-        <v>460.3</v>
+        <v>466.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3764,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3778,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C95" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D95" t="n">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E95" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F95" t="n">
-        <v>5376.2858</v>
+        <v>5877.57</v>
       </c>
       <c r="G95" t="n">
-        <v>460.35</v>
+        <v>466.15</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3803,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3726,19 +3820,19 @@
         <v>456</v>
       </c>
       <c r="C96" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D96" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E96" t="n">
         <v>456</v>
       </c>
       <c r="F96" t="n">
-        <v>5567.4011</v>
+        <v>5376.2858</v>
       </c>
       <c r="G96" t="n">
-        <v>460.4</v>
+        <v>466.1166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +3842,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3761,19 +3859,19 @@
         <v>456</v>
       </c>
       <c r="C97" t="n">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D97" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E97" t="n">
         <v>456</v>
       </c>
       <c r="F97" t="n">
-        <v>3306.0699</v>
+        <v>5567.4011</v>
       </c>
       <c r="G97" t="n">
-        <v>460.4</v>
+        <v>466.0666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +3881,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +3895,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C98" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D98" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E98" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F98" t="n">
-        <v>417.2431</v>
+        <v>3306.0699</v>
       </c>
       <c r="G98" t="n">
-        <v>460.4</v>
+        <v>466.0333333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +3920,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,7 +3934,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C99" t="n">
         <v>459</v>
@@ -3840,24 +3946,22 @@
         <v>457</v>
       </c>
       <c r="F99" t="n">
-        <v>2555.543092374</v>
+        <v>417.2431</v>
       </c>
       <c r="G99" t="n">
-        <v>460.4</v>
+        <v>466.0166666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>459</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -3872,29 +3976,27 @@
         <v>459</v>
       </c>
       <c r="C100" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D100" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E100" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F100" t="n">
-        <v>857.2741</v>
+        <v>2555.543092374</v>
       </c>
       <c r="G100" t="n">
-        <v>460.2</v>
+        <v>465.9833333333333</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>459</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -3910,10 +4012,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C101" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D101" t="n">
         <v>460</v>
@@ -3922,10 +4024,10 @@
         <v>458</v>
       </c>
       <c r="F101" t="n">
-        <v>970.5535</v>
+        <v>857.2741</v>
       </c>
       <c r="G101" t="n">
-        <v>459.7</v>
+        <v>465.9166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3949,22 +4051,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>458</v>
+      </c>
+      <c r="C102" t="n">
         <v>460</v>
       </c>
-      <c r="C102" t="n">
-        <v>463</v>
-      </c>
       <c r="D102" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E102" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F102" t="n">
-        <v>5092.216407626</v>
+        <v>970.5535</v>
       </c>
       <c r="G102" t="n">
-        <v>459.3</v>
+        <v>465.8166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3988,22 +4090,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>460</v>
+      </c>
+      <c r="C103" t="n">
         <v>463</v>
       </c>
-      <c r="C103" t="n">
-        <v>468</v>
-      </c>
       <c r="D103" t="n">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E103" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F103" t="n">
-        <v>5961.7747</v>
+        <v>5092.216407626</v>
       </c>
       <c r="G103" t="n">
-        <v>459.15</v>
+        <v>465.6333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4027,22 +4129,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>463</v>
+      </c>
+      <c r="C104" t="n">
         <v>468</v>
-      </c>
-      <c r="C104" t="n">
-        <v>466</v>
       </c>
       <c r="D104" t="n">
         <v>468</v>
       </c>
       <c r="E104" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F104" t="n">
-        <v>1949.5623</v>
+        <v>5961.7747</v>
       </c>
       <c r="G104" t="n">
-        <v>459.45</v>
+        <v>465.5333333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4066,7 +4168,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C105" t="n">
         <v>466</v>
@@ -4075,13 +4177,13 @@
         <v>468</v>
       </c>
       <c r="E105" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F105" t="n">
-        <v>5058.7848</v>
+        <v>1949.5623</v>
       </c>
       <c r="G105" t="n">
-        <v>459.7</v>
+        <v>465.4666666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4111,16 +4213,16 @@
         <v>466</v>
       </c>
       <c r="D106" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E106" t="n">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F106" t="n">
-        <v>3977.2712</v>
+        <v>5058.7848</v>
       </c>
       <c r="G106" t="n">
-        <v>459.9</v>
+        <v>465.45</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4144,22 +4246,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C107" t="n">
         <v>466</v>
       </c>
       <c r="D107" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E107" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F107" t="n">
-        <v>2100.2842</v>
+        <v>3977.2712</v>
       </c>
       <c r="G107" t="n">
-        <v>460.25</v>
+        <v>465.4166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4186,19 +4288,19 @@
         <v>468</v>
       </c>
       <c r="C108" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D108" t="n">
         <v>468</v>
       </c>
       <c r="E108" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F108" t="n">
-        <v>2126.4656</v>
+        <v>2100.2842</v>
       </c>
       <c r="G108" t="n">
-        <v>460.6</v>
+        <v>465.3833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4222,22 +4324,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>468</v>
+      </c>
+      <c r="C109" t="n">
         <v>465</v>
       </c>
-      <c r="C109" t="n">
-        <v>463</v>
-      </c>
       <c r="D109" t="n">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E109" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F109" t="n">
-        <v>5815.1385</v>
+        <v>2126.4656</v>
       </c>
       <c r="G109" t="n">
-        <v>460.85</v>
+        <v>465.35</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4261,22 +4363,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>465</v>
+      </c>
+      <c r="C110" t="n">
         <v>463</v>
       </c>
-      <c r="C110" t="n">
-        <v>468</v>
-      </c>
       <c r="D110" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E110" t="n">
         <v>463</v>
       </c>
       <c r="F110" t="n">
-        <v>5059.748647121</v>
+        <v>5815.1385</v>
       </c>
       <c r="G110" t="n">
-        <v>461.05</v>
+        <v>465.2666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4300,22 +4402,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C111" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D111" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E111" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F111" t="n">
-        <v>2482.594</v>
+        <v>5059.748647121</v>
       </c>
       <c r="G111" t="n">
-        <v>461.4</v>
+        <v>465.2166666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4339,22 +4441,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C112" t="n">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D112" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E112" t="n">
         <v>464</v>
       </c>
       <c r="F112" t="n">
-        <v>6914.0021</v>
+        <v>2482.594</v>
       </c>
       <c r="G112" t="n">
-        <v>461.75</v>
+        <v>465.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4378,22 +4480,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C113" t="n">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D113" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E113" t="n">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>6914.0021</v>
       </c>
       <c r="G113" t="n">
-        <v>462.15</v>
+        <v>464.8333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4417,22 +4519,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C114" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D114" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E114" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="F114" t="n">
-        <v>543.7395</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>462.5</v>
+        <v>464.6666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4456,7 +4558,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C115" t="n">
         <v>464</v>
@@ -4465,13 +4567,13 @@
         <v>464</v>
       </c>
       <c r="E115" t="n">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F115" t="n">
-        <v>337.33525431</v>
+        <v>543.7395</v>
       </c>
       <c r="G115" t="n">
-        <v>462.85</v>
+        <v>464.4166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4495,22 +4597,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>463</v>
+      </c>
+      <c r="C116" t="n">
         <v>464</v>
-      </c>
-      <c r="C116" t="n">
-        <v>460</v>
       </c>
       <c r="D116" t="n">
         <v>464</v>
       </c>
       <c r="E116" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F116" t="n">
-        <v>14798.1133</v>
+        <v>337.33525431</v>
       </c>
       <c r="G116" t="n">
-        <v>463.25</v>
+        <v>464.2333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4534,22 +4636,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C117" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D117" t="n">
         <v>464</v>
       </c>
       <c r="E117" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F117" t="n">
-        <v>4397.3165</v>
+        <v>14798.1133</v>
       </c>
       <c r="G117" t="n">
-        <v>463.5</v>
+        <v>464.0166666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4573,22 +4675,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C118" t="n">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D118" t="n">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E118" t="n">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F118" t="n">
-        <v>5398.3357</v>
+        <v>4397.3165</v>
       </c>
       <c r="G118" t="n">
-        <v>463.8</v>
+        <v>463.6666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4612,22 +4714,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>463</v>
+      </c>
+      <c r="C119" t="n">
         <v>468</v>
-      </c>
-      <c r="C119" t="n">
-        <v>464</v>
       </c>
       <c r="D119" t="n">
         <v>468</v>
       </c>
       <c r="E119" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F119" t="n">
-        <v>1216.510761538</v>
+        <v>5398.3357</v>
       </c>
       <c r="G119" t="n">
-        <v>464.25</v>
+        <v>463.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4651,22 +4753,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C120" t="n">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D120" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E120" t="n">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F120" t="n">
-        <v>100</v>
+        <v>1216.510761538</v>
       </c>
       <c r="G120" t="n">
-        <v>464.6</v>
+        <v>463.2333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4690,7 +4792,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C121" t="n">
         <v>466</v>
@@ -4699,13 +4801,13 @@
         <v>466</v>
       </c>
       <c r="E121" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F121" t="n">
-        <v>3706.1073</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>464.9</v>
+        <v>463</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4729,22 +4831,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C122" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D122" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E122" t="n">
         <v>464</v>
       </c>
       <c r="F122" t="n">
-        <v>1069.8081</v>
+        <v>3706.1073</v>
       </c>
       <c r="G122" t="n">
-        <v>465.15</v>
+        <v>462.85</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4768,22 +4870,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>465</v>
+      </c>
+      <c r="C123" t="n">
         <v>464</v>
       </c>
-      <c r="C123" t="n">
-        <v>463</v>
-      </c>
       <c r="D123" t="n">
+        <v>465</v>
+      </c>
+      <c r="E123" t="n">
         <v>464</v>
       </c>
-      <c r="E123" t="n">
-        <v>463</v>
-      </c>
       <c r="F123" t="n">
-        <v>1726.2231</v>
+        <v>1069.8081</v>
       </c>
       <c r="G123" t="n">
-        <v>465.2</v>
+        <v>462.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4807,22 +4909,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C124" t="n">
         <v>463</v>
       </c>
       <c r="D124" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E124" t="n">
         <v>463</v>
       </c>
       <c r="F124" t="n">
-        <v>369.8822</v>
+        <v>1726.2231</v>
       </c>
       <c r="G124" t="n">
-        <v>464.95</v>
+        <v>462.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4849,19 +4951,19 @@
         <v>463</v>
       </c>
       <c r="C125" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D125" t="n">
         <v>463</v>
       </c>
       <c r="E125" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F125" t="n">
-        <v>1750.9971</v>
+        <v>369.8822</v>
       </c>
       <c r="G125" t="n">
-        <v>464.8</v>
+        <v>462.3166666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4885,22 +4987,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C126" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D126" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E126" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F126" t="n">
-        <v>210.4446</v>
+        <v>1750.9971</v>
       </c>
       <c r="G126" t="n">
-        <v>464.4</v>
+        <v>462.1666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4927,19 +5029,19 @@
         <v>458</v>
       </c>
       <c r="C127" t="n">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D127" t="n">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E127" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F127" t="n">
-        <v>1980.3462</v>
+        <v>210.4446</v>
       </c>
       <c r="G127" t="n">
-        <v>463.9</v>
+        <v>461.9166666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4963,22 +5065,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>458</v>
+      </c>
+      <c r="C128" t="n">
         <v>463</v>
-      </c>
-      <c r="C128" t="n">
-        <v>458</v>
       </c>
       <c r="D128" t="n">
         <v>463</v>
       </c>
       <c r="E128" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F128" t="n">
-        <v>5.1652</v>
+        <v>1980.3462</v>
       </c>
       <c r="G128" t="n">
-        <v>463.65</v>
+        <v>461.7666666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5002,22 +5104,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C129" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D129" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E129" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F129" t="n">
-        <v>30</v>
+        <v>5.1652</v>
       </c>
       <c r="G129" t="n">
-        <v>463.5</v>
+        <v>461.6333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5044,19 +5146,19 @@
         <v>462</v>
       </c>
       <c r="C130" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D130" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E130" t="n">
         <v>462</v>
       </c>
       <c r="F130" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="G130" t="n">
-        <v>463.45</v>
+        <v>461.6166666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5080,22 +5182,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>462</v>
+      </c>
+      <c r="C131" t="n">
         <v>463</v>
-      </c>
-      <c r="C131" t="n">
-        <v>461</v>
       </c>
       <c r="D131" t="n">
         <v>463</v>
       </c>
       <c r="E131" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F131" t="n">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="G131" t="n">
-        <v>463.25</v>
+        <v>461.6666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5119,22 +5221,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C132" t="n">
         <v>461</v>
       </c>
       <c r="D132" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E132" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F132" t="n">
-        <v>1.4135</v>
+        <v>5</v>
       </c>
       <c r="G132" t="n">
-        <v>463.05</v>
+        <v>461.65</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5158,22 +5260,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C133" t="n">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D133" t="n">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E133" t="n">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F133" t="n">
-        <v>5</v>
+        <v>1.4135</v>
       </c>
       <c r="G133" t="n">
-        <v>462.9</v>
+        <v>461.6333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5197,7 +5299,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C134" t="n">
         <v>463</v>
@@ -5206,13 +5308,13 @@
         <v>463</v>
       </c>
       <c r="E134" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F134" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G134" t="n">
-        <v>462.75</v>
+        <v>461.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5236,22 +5338,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C135" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D135" t="n">
         <v>463</v>
       </c>
       <c r="E135" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F135" t="n">
-        <v>4306.5143</v>
+        <v>15</v>
       </c>
       <c r="G135" t="n">
-        <v>462.6</v>
+        <v>461.8833333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5275,22 +5377,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C136" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D136" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E136" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F136" t="n">
-        <v>1093.3385</v>
+        <v>4306.5143</v>
       </c>
       <c r="G136" t="n">
-        <v>462.35</v>
+        <v>461.9166666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5314,22 +5416,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C137" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D137" t="n">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E137" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F137" t="n">
-        <v>410.6475</v>
+        <v>1093.3385</v>
       </c>
       <c r="G137" t="n">
-        <v>462.35</v>
+        <v>461.9666666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5353,22 +5455,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C138" t="n">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D138" t="n">
         <v>462</v>
       </c>
       <c r="E138" t="n">
+        <v>459</v>
+      </c>
+      <c r="F138" t="n">
+        <v>410.6475</v>
+      </c>
+      <c r="G138" t="n">
         <v>462</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" t="n">
-        <v>462.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5392,22 +5494,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C139" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D139" t="n">
         <v>462</v>
       </c>
       <c r="E139" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F139" t="n">
-        <v>2484.3109</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>461.85</v>
+        <v>462.05</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5431,22 +5533,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C140" t="n">
         <v>457</v>
       </c>
       <c r="D140" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E140" t="n">
         <v>457</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>2484.3109</v>
       </c>
       <c r="G140" t="n">
-        <v>461.6</v>
+        <v>461.95</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5470,22 +5572,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C141" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D141" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E141" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F141" t="n">
-        <v>72.8505</v>
+        <v>2</v>
       </c>
       <c r="G141" t="n">
-        <v>461.3</v>
+        <v>461.7666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5509,22 +5611,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C142" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D142" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E142" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>72.8505</v>
       </c>
       <c r="G142" t="n">
-        <v>461.1</v>
+        <v>461.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5551,19 +5653,19 @@
         <v>461</v>
       </c>
       <c r="C143" t="n">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D143" t="n">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E143" t="n">
         <v>461</v>
       </c>
       <c r="F143" t="n">
-        <v>9433.799629122001</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>460.95</v>
+        <v>461.5166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5587,22 +5689,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C144" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D144" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E144" t="n">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F144" t="n">
-        <v>1218.5032</v>
+        <v>9433.799629122001</v>
       </c>
       <c r="G144" t="n">
-        <v>461.05</v>
+        <v>461.5333333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5626,22 +5728,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C145" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D145" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E145" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F145" t="n">
-        <v>1.5</v>
+        <v>1218.5032</v>
       </c>
       <c r="G145" t="n">
-        <v>460.95</v>
+        <v>461.5833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5665,22 +5767,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C146" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D146" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E146" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F146" t="n">
-        <v>81.56229999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G146" t="n">
-        <v>461.15</v>
+        <v>461.5666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5704,22 +5806,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C147" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D147" t="n">
         <v>462</v>
       </c>
       <c r="E147" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F147" t="n">
-        <v>8220.3246</v>
+        <v>81.56229999999999</v>
       </c>
       <c r="G147" t="n">
-        <v>461.3</v>
+        <v>461.5833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5749,16 +5851,16 @@
         <v>461</v>
       </c>
       <c r="D148" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E148" t="n">
         <v>461</v>
       </c>
       <c r="F148" t="n">
-        <v>27.6968</v>
+        <v>8220.3246</v>
       </c>
       <c r="G148" t="n">
-        <v>461.2</v>
+        <v>461.6833333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5785,19 +5887,19 @@
         <v>461</v>
       </c>
       <c r="C149" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D149" t="n">
         <v>461</v>
       </c>
       <c r="E149" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F149" t="n">
-        <v>13514.1822</v>
+        <v>27.6968</v>
       </c>
       <c r="G149" t="n">
-        <v>461.15</v>
+        <v>461.6666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5821,22 +5923,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C150" t="n">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D150" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E150" t="n">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F150" t="n">
-        <v>21.645021645</v>
+        <v>13514.1822</v>
       </c>
       <c r="G150" t="n">
-        <v>461.15</v>
+        <v>461.6833333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5860,22 +5962,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C151" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D151" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E151" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F151" t="n">
-        <v>234.7651</v>
+        <v>21.645021645</v>
       </c>
       <c r="G151" t="n">
-        <v>460.9</v>
+        <v>461.7166666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5899,22 +6001,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C152" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D152" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E152" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F152" t="n">
-        <v>1.2554</v>
+        <v>234.7651</v>
       </c>
       <c r="G152" t="n">
-        <v>460.95</v>
+        <v>461.6833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5950,10 +6052,10 @@
         <v>462</v>
       </c>
       <c r="F153" t="n">
-        <v>1.2575</v>
+        <v>1.2554</v>
       </c>
       <c r="G153" t="n">
-        <v>460.9</v>
+        <v>461.75</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5977,22 +6079,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C154" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D154" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E154" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F154" t="n">
-        <v>1281.0186</v>
+        <v>1.2575</v>
       </c>
       <c r="G154" t="n">
-        <v>460.75</v>
+        <v>461.8333333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6019,19 +6121,19 @@
         <v>458</v>
       </c>
       <c r="C155" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D155" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E155" t="n">
         <v>458</v>
       </c>
       <c r="F155" t="n">
-        <v>659.5029</v>
+        <v>1281.0186</v>
       </c>
       <c r="G155" t="n">
-        <v>460.65</v>
+        <v>461.8833333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6055,10 +6157,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>458</v>
+      </c>
+      <c r="C156" t="n">
         <v>462</v>
-      </c>
-      <c r="C156" t="n">
-        <v>458</v>
       </c>
       <c r="D156" t="n">
         <v>462</v>
@@ -6067,10 +6169,10 @@
         <v>458</v>
       </c>
       <c r="F156" t="n">
-        <v>850.7618</v>
+        <v>659.5029</v>
       </c>
       <c r="G156" t="n">
-        <v>460.8</v>
+        <v>461.9666666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6094,22 +6196,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C157" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D157" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E157" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F157" t="n">
-        <v>21544.108</v>
+        <v>850.7618</v>
       </c>
       <c r="G157" t="n">
-        <v>460.65</v>
+        <v>462</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6133,22 +6235,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C158" t="n">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D158" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E158" t="n">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>21544.108</v>
       </c>
       <c r="G158" t="n">
-        <v>460.65</v>
+        <v>461.9833333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6178,16 +6280,16 @@
         <v>462</v>
       </c>
       <c r="D159" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E159" t="n">
         <v>462</v>
       </c>
       <c r="F159" t="n">
-        <v>33431.8647</v>
+        <v>3</v>
       </c>
       <c r="G159" t="n">
-        <v>460.8</v>
+        <v>462.0333333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6214,19 +6316,19 @@
         <v>462</v>
       </c>
       <c r="C160" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D160" t="n">
         <v>463</v>
       </c>
       <c r="E160" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F160" t="n">
-        <v>149844.7962</v>
+        <v>33431.8647</v>
       </c>
       <c r="G160" t="n">
-        <v>460.85</v>
+        <v>462.0833333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6250,22 +6352,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>462</v>
+      </c>
+      <c r="C161" t="n">
         <v>461</v>
       </c>
-      <c r="C161" t="n">
-        <v>460</v>
-      </c>
       <c r="D161" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E161" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F161" t="n">
-        <v>295500.0281</v>
+        <v>149844.7962</v>
       </c>
       <c r="G161" t="n">
-        <v>461</v>
+        <v>462.1333333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6289,22 +6391,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C162" t="n">
         <v>460</v>
       </c>
       <c r="D162" t="n">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E162" t="n">
         <v>460</v>
       </c>
       <c r="F162" t="n">
-        <v>410001.0375</v>
+        <v>295500.0281</v>
       </c>
       <c r="G162" t="n">
-        <v>460.95</v>
+        <v>462.1333333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6334,16 +6436,16 @@
         <v>460</v>
       </c>
       <c r="D163" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E163" t="n">
         <v>460</v>
       </c>
       <c r="F163" t="n">
-        <v>425000.0379</v>
+        <v>410001.0375</v>
       </c>
       <c r="G163" t="n">
-        <v>460.9</v>
+        <v>462.0833333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6379,10 +6481,10 @@
         <v>460</v>
       </c>
       <c r="F164" t="n">
-        <v>400000.036</v>
+        <v>425000.0379</v>
       </c>
       <c r="G164" t="n">
-        <v>460.65</v>
+        <v>461.95</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6418,10 +6520,10 @@
         <v>460</v>
       </c>
       <c r="F165" t="n">
-        <v>360000.0326</v>
+        <v>400000.036</v>
       </c>
       <c r="G165" t="n">
-        <v>460.6</v>
+        <v>461.85</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6454,13 +6556,13 @@
         <v>460</v>
       </c>
       <c r="E166" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F166" t="n">
-        <v>385049.3182</v>
+        <v>360000.0326</v>
       </c>
       <c r="G166" t="n">
-        <v>460.5</v>
+        <v>461.75</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6493,13 +6595,13 @@
         <v>460</v>
       </c>
       <c r="E167" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F167" t="n">
-        <v>340000.0309</v>
+        <v>385049.3182</v>
       </c>
       <c r="G167" t="n">
-        <v>460.45</v>
+        <v>461.65</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6532,13 +6634,13 @@
         <v>460</v>
       </c>
       <c r="E168" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F168" t="n">
-        <v>440588.1131</v>
+        <v>340000.0309</v>
       </c>
       <c r="G168" t="n">
-        <v>460.4</v>
+        <v>461.55</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6565,7 +6667,7 @@
         <v>460</v>
       </c>
       <c r="C169" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D169" t="n">
         <v>460</v>
@@ -6574,10 +6676,10 @@
         <v>459</v>
       </c>
       <c r="F169" t="n">
-        <v>599034.0146</v>
+        <v>440588.1131</v>
       </c>
       <c r="G169" t="n">
-        <v>460.35</v>
+        <v>461.4666666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6601,22 +6703,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C170" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D170" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E170" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F170" t="n">
-        <v>526567.4072</v>
+        <v>599034.0146</v>
       </c>
       <c r="G170" t="n">
-        <v>460.2</v>
+        <v>461.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6640,7 +6742,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C171" t="n">
         <v>458</v>
@@ -6652,10 +6754,10 @@
         <v>457</v>
       </c>
       <c r="F171" t="n">
-        <v>1321280.7997</v>
+        <v>526567.4072</v>
       </c>
       <c r="G171" t="n">
-        <v>460.2</v>
+        <v>461.2333333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6685,16 +6787,16 @@
         <v>458</v>
       </c>
       <c r="D172" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E172" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F172" t="n">
-        <v>1200809.6596</v>
+        <v>1321280.7997</v>
       </c>
       <c r="G172" t="n">
-        <v>460</v>
+        <v>461.0833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6730,10 +6832,10 @@
         <v>456</v>
       </c>
       <c r="F173" t="n">
-        <v>1298647.5472</v>
+        <v>1200809.6596</v>
       </c>
       <c r="G173" t="n">
-        <v>459.8</v>
+        <v>460.9833333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6760,19 +6862,19 @@
         <v>458</v>
       </c>
       <c r="C174" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D174" t="n">
         <v>458</v>
       </c>
       <c r="E174" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F174" t="n">
-        <v>869808.7831999999</v>
+        <v>1298647.5472</v>
       </c>
       <c r="G174" t="n">
-        <v>459.8</v>
+        <v>460.85</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6796,22 +6898,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C175" t="n">
         <v>457</v>
       </c>
       <c r="D175" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E175" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F175" t="n">
-        <v>1389176.8496</v>
+        <v>869808.7831999999</v>
       </c>
       <c r="G175" t="n">
-        <v>459.75</v>
+        <v>460.7333333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6844,13 +6946,13 @@
         <v>457</v>
       </c>
       <c r="E176" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F176" t="n">
-        <v>1241836.3085</v>
+        <v>1389176.8496</v>
       </c>
       <c r="G176" t="n">
-        <v>459.5</v>
+        <v>460.6166666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6886,10 +6988,10 @@
         <v>457</v>
       </c>
       <c r="F177" t="n">
-        <v>1584040.4237</v>
+        <v>1241836.3085</v>
       </c>
       <c r="G177" t="n">
-        <v>459.45</v>
+        <v>460.5666666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6922,13 +7024,13 @@
         <v>457</v>
       </c>
       <c r="E178" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F178" t="n">
-        <v>1531509.4444</v>
+        <v>1584040.4237</v>
       </c>
       <c r="G178" t="n">
-        <v>459.2</v>
+        <v>460.55</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6961,13 +7063,13 @@
         <v>457</v>
       </c>
       <c r="E179" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F179" t="n">
-        <v>1386210.0368</v>
+        <v>1531509.4444</v>
       </c>
       <c r="G179" t="n">
-        <v>458.95</v>
+        <v>460.3666666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7003,10 +7105,10 @@
         <v>457</v>
       </c>
       <c r="F180" t="n">
-        <v>495298.0825</v>
+        <v>1386210.0368</v>
       </c>
       <c r="G180" t="n">
-        <v>458.7</v>
+        <v>460.25</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7030,22 +7132,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C181" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D181" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E181" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F181" t="n">
-        <v>720000.0214</v>
+        <v>495298.0825</v>
       </c>
       <c r="G181" t="n">
-        <v>458.55</v>
+        <v>460.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7081,10 +7183,10 @@
         <v>458</v>
       </c>
       <c r="F182" t="n">
-        <v>688000.0204</v>
+        <v>720000.0214</v>
       </c>
       <c r="G182" t="n">
-        <v>458.45</v>
+        <v>459.9666666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7120,10 +7222,10 @@
         <v>458</v>
       </c>
       <c r="F183" t="n">
-        <v>322000.0111</v>
+        <v>688000.0204</v>
       </c>
       <c r="G183" t="n">
-        <v>458.35</v>
+        <v>459.8666666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7147,22 +7249,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C184" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D184" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E184" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F184" t="n">
-        <v>73482.53350000001</v>
+        <v>322000.0111</v>
       </c>
       <c r="G184" t="n">
-        <v>458.3</v>
+        <v>459.7833333333334</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7186,22 +7288,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C185" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D185" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E185" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F185" t="n">
-        <v>270233.9998</v>
+        <v>73482.53350000001</v>
       </c>
       <c r="G185" t="n">
-        <v>458.2</v>
+        <v>459.7166666666666</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7231,16 +7333,16 @@
         <v>458</v>
       </c>
       <c r="D186" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E186" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F186" t="n">
-        <v>555024.0605</v>
+        <v>270233.9998</v>
       </c>
       <c r="G186" t="n">
-        <v>458.1</v>
+        <v>459.6666666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7267,7 +7369,7 @@
         <v>458</v>
       </c>
       <c r="C187" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D187" t="n">
         <v>459</v>
@@ -7276,10 +7378,10 @@
         <v>458</v>
       </c>
       <c r="F187" t="n">
-        <v>185055.5476</v>
+        <v>555024.0605</v>
       </c>
       <c r="G187" t="n">
-        <v>458</v>
+        <v>459.6666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7303,7 +7405,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C188" t="n">
         <v>459</v>
@@ -7315,10 +7417,10 @@
         <v>458</v>
       </c>
       <c r="F188" t="n">
-        <v>69653.6347</v>
+        <v>185055.5476</v>
       </c>
       <c r="G188" t="n">
-        <v>457.95</v>
+        <v>459.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7345,19 +7447,19 @@
         <v>459</v>
       </c>
       <c r="C189" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D189" t="n">
         <v>459</v>
       </c>
       <c r="E189" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F189" t="n">
-        <v>195284.9851</v>
+        <v>69653.6347</v>
       </c>
       <c r="G189" t="n">
-        <v>457.9</v>
+        <v>459.6166666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7381,22 +7483,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C190" t="n">
         <v>457</v>
       </c>
       <c r="D190" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E190" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F190" t="n">
-        <v>500721.6752</v>
+        <v>195284.9851</v>
       </c>
       <c r="G190" t="n">
-        <v>457.8</v>
+        <v>459.5333333333334</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7426,16 +7528,16 @@
         <v>457</v>
       </c>
       <c r="D191" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E191" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F191" t="n">
-        <v>592800.018</v>
+        <v>500721.6752</v>
       </c>
       <c r="G191" t="n">
-        <v>457.75</v>
+        <v>459.4333333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7471,10 +7573,10 @@
         <v>457</v>
       </c>
       <c r="F192" t="n">
-        <v>518400.0159</v>
+        <v>592800.018</v>
       </c>
       <c r="G192" t="n">
-        <v>457.7</v>
+        <v>459.3666666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7498,22 +7600,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C193" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D193" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E193" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F193" t="n">
-        <v>94001.0104</v>
+        <v>518400.0159</v>
       </c>
       <c r="G193" t="n">
-        <v>457.75</v>
+        <v>459.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7537,22 +7639,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C194" t="n">
         <v>458</v>
       </c>
       <c r="D194" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E194" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F194" t="n">
-        <v>492024</v>
+        <v>94001.0104</v>
       </c>
       <c r="G194" t="n">
-        <v>457.75</v>
+        <v>459.2166666666666</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7585,13 +7687,13 @@
         <v>458</v>
       </c>
       <c r="E195" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F195" t="n">
-        <v>564000.0212</v>
+        <v>492024</v>
       </c>
       <c r="G195" t="n">
-        <v>457.8</v>
+        <v>459.1333333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7627,10 +7729,10 @@
         <v>458</v>
       </c>
       <c r="F196" t="n">
-        <v>516000.0193</v>
+        <v>564000.0212</v>
       </c>
       <c r="G196" t="n">
-        <v>457.85</v>
+        <v>459.15</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7657,19 +7759,19 @@
         <v>458</v>
       </c>
       <c r="C197" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D197" t="n">
         <v>458</v>
       </c>
       <c r="E197" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F197" t="n">
-        <v>268537.7921</v>
+        <v>516000.0193</v>
       </c>
       <c r="G197" t="n">
-        <v>457.9</v>
+        <v>459.15</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7693,22 +7795,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C198" t="n">
         <v>457</v>
       </c>
       <c r="D198" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E198" t="n">
         <v>457</v>
       </c>
       <c r="F198" t="n">
-        <v>422000.0129</v>
+        <v>268537.7921</v>
       </c>
       <c r="G198" t="n">
-        <v>457.9</v>
+        <v>459.1166666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7741,13 +7843,13 @@
         <v>457</v>
       </c>
       <c r="E199" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F199" t="n">
-        <v>625019.068</v>
+        <v>422000.0129</v>
       </c>
       <c r="G199" t="n">
-        <v>457.9</v>
+        <v>459.0333333333334</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7771,22 +7873,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C200" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D200" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E200" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F200" t="n">
-        <v>48001.0067</v>
+        <v>625019.068</v>
       </c>
       <c r="G200" t="n">
-        <v>457.95</v>
+        <v>459.0333333333334</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7816,16 +7918,16 @@
         <v>458</v>
       </c>
       <c r="D201" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E201" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F201" t="n">
-        <v>263752.651687581</v>
+        <v>48001.0067</v>
       </c>
       <c r="G201" t="n">
-        <v>457.95</v>
+        <v>459.05</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7855,16 +7957,16 @@
         <v>458</v>
       </c>
       <c r="D202" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E202" t="n">
         <v>458</v>
       </c>
       <c r="F202" t="n">
-        <v>275126.3086</v>
+        <v>263752.651687581</v>
       </c>
       <c r="G202" t="n">
-        <v>457.95</v>
+        <v>459.05</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7888,22 +7990,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C203" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D203" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E203" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>275126.3086</v>
       </c>
       <c r="G203" t="n">
-        <v>457.9</v>
+        <v>459</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7927,22 +8029,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C204" t="n">
         <v>457</v>
       </c>
       <c r="D204" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E204" t="n">
         <v>457</v>
       </c>
       <c r="F204" t="n">
-        <v>1465.171892374</v>
+        <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>457.9</v>
+        <v>458.8333333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7966,22 +8068,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C205" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D205" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E205" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F205" t="n">
-        <v>133200.0009</v>
+        <v>1465.171892374</v>
       </c>
       <c r="G205" t="n">
-        <v>457.9</v>
+        <v>458.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8005,22 +8107,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C206" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D206" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E206" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F206" t="n">
-        <v>146764.6696</v>
+        <v>133200.0009</v>
       </c>
       <c r="G206" t="n">
-        <v>457.85</v>
+        <v>458.65</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8044,22 +8146,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C207" t="n">
         <v>459</v>
       </c>
       <c r="D207" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E207" t="n">
         <v>457</v>
       </c>
       <c r="F207" t="n">
-        <v>857003.1303</v>
+        <v>146764.6696</v>
       </c>
       <c r="G207" t="n">
-        <v>457.9</v>
+        <v>458.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8089,16 +8191,16 @@
         <v>459</v>
       </c>
       <c r="D208" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E208" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F208" t="n">
-        <v>809640.0194</v>
+        <v>857003.1303</v>
       </c>
       <c r="G208" t="n">
-        <v>457.9</v>
+        <v>458.5666666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8134,10 +8236,10 @@
         <v>459</v>
       </c>
       <c r="F209" t="n">
-        <v>1016480.0233</v>
+        <v>809640.0194</v>
       </c>
       <c r="G209" t="n">
-        <v>457.9</v>
+        <v>458.5333333333334</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8173,10 +8275,10 @@
         <v>459</v>
       </c>
       <c r="F210" t="n">
-        <v>938120.0212</v>
+        <v>1016480.0233</v>
       </c>
       <c r="G210" t="n">
-        <v>458</v>
+        <v>458.5666666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8209,13 +8311,13 @@
         <v>459</v>
       </c>
       <c r="E211" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F211" t="n">
-        <v>824927.0203</v>
+        <v>938120.0212</v>
       </c>
       <c r="G211" t="n">
-        <v>458.1</v>
+        <v>458.5166666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8245,16 +8347,16 @@
         <v>459</v>
       </c>
       <c r="D212" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E212" t="n">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F212" t="n">
-        <v>932779.1379</v>
+        <v>824927.0203</v>
       </c>
       <c r="G212" t="n">
-        <v>458.2</v>
+        <v>458.5333333333334</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8284,16 +8386,16 @@
         <v>459</v>
       </c>
       <c r="D213" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E213" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F213" t="n">
-        <v>748001.0205</v>
+        <v>932779.1379</v>
       </c>
       <c r="G213" t="n">
-        <v>458.2</v>
+        <v>458.4833333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8326,13 +8428,13 @@
         <v>459</v>
       </c>
       <c r="E214" t="n">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F214" t="n">
-        <v>782000.02</v>
+        <v>748001.0205</v>
       </c>
       <c r="G214" t="n">
-        <v>458.25</v>
+        <v>458.4333333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8368,10 +8470,10 @@
         <v>459</v>
       </c>
       <c r="F215" t="n">
-        <v>748000.0205</v>
+        <v>782000.02</v>
       </c>
       <c r="G215" t="n">
-        <v>458.3</v>
+        <v>458.45</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8404,13 +8506,13 @@
         <v>459</v>
       </c>
       <c r="E216" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F216" t="n">
-        <v>502682.013</v>
+        <v>748000.0205</v>
       </c>
       <c r="G216" t="n">
-        <v>458.35</v>
+        <v>458.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8434,22 +8536,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C217" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D217" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E217" t="n">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F217" t="n">
-        <v>1</v>
+        <v>502682.013</v>
       </c>
       <c r="G217" t="n">
-        <v>458.45</v>
+        <v>458.4166666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8485,10 +8587,10 @@
         <v>460</v>
       </c>
       <c r="F218" t="n">
-        <v>495.7826</v>
+        <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>458.6</v>
+        <v>458.4666666666666</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8524,10 +8626,10 @@
         <v>460</v>
       </c>
       <c r="F219" t="n">
-        <v>2229.6931</v>
+        <v>495.7826</v>
       </c>
       <c r="G219" t="n">
-        <v>458.75</v>
+        <v>458.4333333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8551,22 +8653,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C220" t="n">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D220" t="n">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E220" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F220" t="n">
-        <v>876.8064000000001</v>
+        <v>2229.6931</v>
       </c>
       <c r="G220" t="n">
-        <v>459</v>
+        <v>458.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8590,22 +8692,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>463</v>
+      </c>
+      <c r="C221" t="n">
         <v>469</v>
       </c>
-      <c r="C221" t="n">
-        <v>470</v>
-      </c>
       <c r="D221" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E221" t="n">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F221" t="n">
-        <v>259.7911</v>
+        <v>876.8064000000001</v>
       </c>
       <c r="G221" t="n">
-        <v>459.55</v>
+        <v>458.5333333333334</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8629,10 +8731,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>469</v>
+      </c>
+      <c r="C222" t="n">
         <v>470</v>
-      </c>
-      <c r="C222" t="n">
-        <v>469</v>
       </c>
       <c r="D222" t="n">
         <v>470</v>
@@ -8641,10 +8743,10 @@
         <v>469</v>
       </c>
       <c r="F222" t="n">
-        <v>3375.6042</v>
+        <v>259.7911</v>
       </c>
       <c r="G222" t="n">
-        <v>460.15</v>
+        <v>458.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8668,22 +8770,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C223" t="n">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D223" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E223" t="n">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="F223" t="n">
-        <v>2193.7956</v>
+        <v>3375.6042</v>
       </c>
       <c r="G223" t="n">
-        <v>460.4</v>
+        <v>458.85</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8707,10 +8809,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C224" t="n">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D224" t="n">
         <v>462</v>
@@ -8719,10 +8821,10 @@
         <v>457</v>
       </c>
       <c r="F224" t="n">
-        <v>2817.9372</v>
+        <v>2193.7956</v>
       </c>
       <c r="G224" t="n">
-        <v>460.3</v>
+        <v>458.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8746,22 +8848,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
+        <v>457</v>
+      </c>
+      <c r="C225" t="n">
         <v>462</v>
       </c>
-      <c r="C225" t="n">
-        <v>458</v>
-      </c>
       <c r="D225" t="n">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E225" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F225" t="n">
-        <v>1893.3684</v>
+        <v>2817.9372</v>
       </c>
       <c r="G225" t="n">
-        <v>460.5</v>
+        <v>458.8333333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8785,22 +8887,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C226" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D226" t="n">
         <v>468</v>
       </c>
       <c r="E226" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F226" t="n">
-        <v>2</v>
+        <v>1893.3684</v>
       </c>
       <c r="G226" t="n">
-        <v>461.05</v>
+        <v>458.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8824,22 +8926,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C227" t="n">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D227" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E227" t="n">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G227" t="n">
-        <v>461.3</v>
+        <v>458.7833333333334</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8866,19 +8968,19 @@
         <v>464</v>
       </c>
       <c r="C228" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D228" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E228" t="n">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="F228" t="n">
-        <v>68310.6202</v>
+        <v>1</v>
       </c>
       <c r="G228" t="n">
-        <v>461.55</v>
+        <v>458.85</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8902,22 +9004,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C229" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D229" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E229" t="n">
         <v>459</v>
       </c>
       <c r="F229" t="n">
-        <v>50542.4646</v>
+        <v>68310.6202</v>
       </c>
       <c r="G229" t="n">
-        <v>461.55</v>
+        <v>458.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8941,22 +9043,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C230" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D230" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E230" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F230" t="n">
-        <v>43511.1336</v>
+        <v>50542.4646</v>
       </c>
       <c r="G230" t="n">
-        <v>461.6</v>
+        <v>458.95</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8980,22 +9082,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C231" t="n">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D231" t="n">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E231" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F231" t="n">
-        <v>9751.341899999999</v>
+        <v>43511.1336</v>
       </c>
       <c r="G231" t="n">
-        <v>461.6</v>
+        <v>459</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9019,22 +9121,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C232" t="n">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D232" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E232" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F232" t="n">
-        <v>508.7956</v>
+        <v>9751.341899999999</v>
       </c>
       <c r="G232" t="n">
-        <v>461.65</v>
+        <v>459.1333333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9064,16 +9166,16 @@
         <v>460</v>
       </c>
       <c r="D233" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E233" t="n">
         <v>460</v>
       </c>
       <c r="F233" t="n">
-        <v>5903.2017</v>
+        <v>508.7956</v>
       </c>
       <c r="G233" t="n">
-        <v>461.7</v>
+        <v>459.1666666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9097,22 +9199,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C234" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D234" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E234" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F234" t="n">
-        <v>1</v>
+        <v>5903.2017</v>
       </c>
       <c r="G234" t="n">
-        <v>461.9</v>
+        <v>459.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9136,22 +9238,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C235" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D235" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E235" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F235" t="n">
-        <v>949800</v>
+        <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>462.05</v>
+        <v>459.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9181,16 +9283,16 @@
         <v>462</v>
       </c>
       <c r="D236" t="n">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E236" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F236" t="n">
-        <v>601801</v>
+        <v>949800</v>
       </c>
       <c r="G236" t="n">
-        <v>462.2</v>
+        <v>459.3833333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9214,22 +9316,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C237" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D237" t="n">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E237" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F237" t="n">
-        <v>203201</v>
+        <v>601801</v>
       </c>
       <c r="G237" t="n">
-        <v>462.35</v>
+        <v>459.4666666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9256,19 +9358,19 @@
         <v>463</v>
       </c>
       <c r="C238" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D238" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E238" t="n">
         <v>463</v>
       </c>
       <c r="F238" t="n">
-        <v>10</v>
+        <v>203201</v>
       </c>
       <c r="G238" t="n">
-        <v>462.5</v>
+        <v>459.5666666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9295,19 +9397,19 @@
         <v>463</v>
       </c>
       <c r="C239" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D239" t="n">
+        <v>464</v>
+      </c>
+      <c r="E239" t="n">
         <v>463</v>
       </c>
-      <c r="E239" t="n">
-        <v>461</v>
-      </c>
       <c r="F239" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="G239" t="n">
-        <v>462.65</v>
+        <v>459.6833333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9331,22 +9433,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>463</v>
+      </c>
+      <c r="C240" t="n">
         <v>461</v>
       </c>
-      <c r="C240" t="n">
-        <v>460</v>
-      </c>
       <c r="D240" t="n">
+        <v>463</v>
+      </c>
+      <c r="E240" t="n">
         <v>461</v>
       </c>
-      <c r="E240" t="n">
-        <v>460</v>
-      </c>
       <c r="F240" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G240" t="n">
-        <v>462.55</v>
+        <v>459.75</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9370,22 +9472,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
+        <v>461</v>
+      </c>
+      <c r="C241" t="n">
         <v>460</v>
       </c>
-      <c r="C241" t="n">
-        <v>463</v>
-      </c>
       <c r="D241" t="n">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E241" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F241" t="n">
-        <v>14561.5948</v>
+        <v>3.5</v>
       </c>
       <c r="G241" t="n">
-        <v>462.1</v>
+        <v>459.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9409,22 +9511,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C242" t="n">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D242" t="n">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E242" t="n">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F242" t="n">
-        <v>1541221.9869</v>
+        <v>14561.5948</v>
       </c>
       <c r="G242" t="n">
-        <v>461.85</v>
+        <v>459.8833333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9454,16 +9556,16 @@
         <v>465</v>
       </c>
       <c r="D243" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E243" t="n">
         <v>465</v>
       </c>
       <c r="F243" t="n">
-        <v>3535801</v>
+        <v>1541221.9869</v>
       </c>
       <c r="G243" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9493,16 +9595,16 @@
         <v>465</v>
       </c>
       <c r="D244" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E244" t="n">
         <v>465</v>
       </c>
       <c r="F244" t="n">
-        <v>2166400</v>
+        <v>3535801</v>
       </c>
       <c r="G244" t="n">
-        <v>462.4</v>
+        <v>460.1166666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9532,16 +9634,16 @@
         <v>465</v>
       </c>
       <c r="D245" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E245" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F245" t="n">
-        <v>3601085.4472</v>
+        <v>2166400</v>
       </c>
       <c r="G245" t="n">
-        <v>462.55</v>
+        <v>460.2166666666666</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9568,19 +9670,19 @@
         <v>465</v>
       </c>
       <c r="C246" t="n">
+        <v>465</v>
+      </c>
+      <c r="D246" t="n">
+        <v>466</v>
+      </c>
+      <c r="E246" t="n">
         <v>464</v>
       </c>
-      <c r="D246" t="n">
-        <v>465</v>
-      </c>
-      <c r="E246" t="n">
-        <v>463</v>
-      </c>
       <c r="F246" t="n">
-        <v>3943068.246</v>
+        <v>3601085.4472</v>
       </c>
       <c r="G246" t="n">
-        <v>462.4</v>
+        <v>460.3333333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9604,22 +9706,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
+        <v>465</v>
+      </c>
+      <c r="C247" t="n">
         <v>464</v>
       </c>
-      <c r="C247" t="n">
+      <c r="D247" t="n">
+        <v>465</v>
+      </c>
+      <c r="E247" t="n">
         <v>463</v>
       </c>
-      <c r="D247" t="n">
-        <v>464</v>
-      </c>
-      <c r="E247" t="n">
-        <v>461</v>
-      </c>
       <c r="F247" t="n">
-        <v>4337050.7067</v>
+        <v>3943068.246</v>
       </c>
       <c r="G247" t="n">
-        <v>462.4</v>
+        <v>460.4333333333333</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9643,22 +9745,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C248" t="n">
         <v>463</v>
       </c>
       <c r="D248" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E248" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F248" t="n">
-        <v>5130000</v>
+        <v>4337050.7067</v>
       </c>
       <c r="G248" t="n">
-        <v>462.35</v>
+        <v>460.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9688,16 +9790,16 @@
         <v>463</v>
       </c>
       <c r="D249" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E249" t="n">
         <v>462</v>
       </c>
       <c r="F249" t="n">
-        <v>5238039.2339</v>
+        <v>5130000</v>
       </c>
       <c r="G249" t="n">
-        <v>462.55</v>
+        <v>460.5666666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9727,16 +9829,16 @@
         <v>463</v>
       </c>
       <c r="D250" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E250" t="n">
         <v>462</v>
       </c>
       <c r="F250" t="n">
-        <v>8832074.073799999</v>
+        <v>5238039.2339</v>
       </c>
       <c r="G250" t="n">
-        <v>462.7</v>
+        <v>460.6666666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9763,19 +9865,19 @@
         <v>463</v>
       </c>
       <c r="C251" t="n">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D251" t="n">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E251" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F251" t="n">
-        <v>2993493.232199785</v>
+        <v>8832074.073799999</v>
       </c>
       <c r="G251" t="n">
-        <v>462.9</v>
+        <v>460.7666666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9802,19 +9904,19 @@
         <v>463</v>
       </c>
       <c r="C252" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D252" t="n">
         <v>466</v>
       </c>
       <c r="E252" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F252" t="n">
-        <v>131821.3946</v>
+        <v>2993493.232199785</v>
       </c>
       <c r="G252" t="n">
-        <v>463.05</v>
+        <v>460.9166666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9838,22 +9940,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C253" t="n">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D253" t="n">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="E253" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F253" t="n">
-        <v>6643.1156</v>
+        <v>131821.3946</v>
       </c>
       <c r="G253" t="n">
-        <v>463</v>
+        <v>461.05</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9877,22 +9979,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C254" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D254" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E254" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F254" t="n">
-        <v>26.052</v>
+        <v>6643.1156</v>
       </c>
       <c r="G254" t="n">
-        <v>462.85</v>
+        <v>461.05</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9908,6 +10010,45 @@
         </is>
       </c>
       <c r="M254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>460</v>
+      </c>
+      <c r="C255" t="n">
+        <v>460</v>
+      </c>
+      <c r="D255" t="n">
+        <v>460</v>
+      </c>
+      <c r="E255" t="n">
+        <v>460</v>
+      </c>
+      <c r="F255" t="n">
+        <v>26.052</v>
+      </c>
+      <c r="G255" t="n">
+        <v>461.0833333333333</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest DAD.xlsx
+++ b/BackTest/2019-10-30 BackTest DAD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:N265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>494.000906113</v>
       </c>
       <c r="G2" t="n">
+        <v>454.8666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>458.35</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>10504.476764923</v>
       </c>
       <c r="G3" t="n">
+        <v>455.4666666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>458.1333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>83.12390000000001</v>
       </c>
       <c r="G4" t="n">
+        <v>455.6666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>457.95</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1019.2701</v>
       </c>
       <c r="G5" t="n">
+        <v>455.6666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>457.7833333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2496.9195</v>
       </c>
       <c r="G6" t="n">
+        <v>455.8666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>457.5166666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>535.0617999999999</v>
       </c>
       <c r="G7" t="n">
+        <v>455.9333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>457.3166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>6473.3455</v>
       </c>
       <c r="G8" t="n">
+        <v>456.6</v>
+      </c>
+      <c r="H8" t="n">
         <v>457.1333333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>8091.6179</v>
       </c>
       <c r="G9" t="n">
+        <v>457.2</v>
+      </c>
+      <c r="H9" t="n">
         <v>456.9833333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>4595.5043</v>
       </c>
       <c r="G10" t="n">
+        <v>457.8666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>456.8833333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>4884.7586</v>
       </c>
       <c r="G11" t="n">
+        <v>458.4666666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>456.75</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>4912.0165</v>
       </c>
       <c r="G12" t="n">
+        <v>458.6666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>456.6</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>5968.2287</v>
       </c>
       <c r="G13" t="n">
+        <v>459</v>
+      </c>
+      <c r="H13" t="n">
         <v>456.5166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>689.9704</v>
       </c>
       <c r="G14" t="n">
+        <v>458.6666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>456.4666666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1446.6252</v>
       </c>
       <c r="G15" t="n">
+        <v>458.6666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>456.4166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>11.991285403</v>
       </c>
       <c r="G16" t="n">
+        <v>458.8666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>456.45</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2824.0378</v>
       </c>
       <c r="G17" t="n">
+        <v>458.8</v>
+      </c>
+      <c r="H17" t="n">
         <v>456.35</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>3635.9074</v>
       </c>
       <c r="G18" t="n">
+        <v>458.4</v>
+      </c>
+      <c r="H18" t="n">
         <v>456.2833333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>6082.1157</v>
       </c>
       <c r="G19" t="n">
+        <v>458.2666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>456.2</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>6295.7879</v>
       </c>
       <c r="G20" t="n">
+        <v>457.9333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>456.1</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>808961.6074</v>
       </c>
       <c r="G21" t="n">
+        <v>457.5333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>456</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>2784026.545</v>
       </c>
       <c r="G22" t="n">
+        <v>457.3333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>455.95</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1921189.8897</v>
       </c>
       <c r="G23" t="n">
+        <v>457</v>
+      </c>
+      <c r="H23" t="n">
         <v>456.0333333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>6260.871519037</v>
       </c>
       <c r="G24" t="n">
+        <v>456.6</v>
+      </c>
+      <c r="H24" t="n">
         <v>456.0833333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>494200</v>
       </c>
       <c r="G25" t="n">
+        <v>456.2</v>
+      </c>
+      <c r="H25" t="n">
         <v>456.1166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>729740.1506000001</v>
       </c>
       <c r="G26" t="n">
+        <v>456</v>
+      </c>
+      <c r="H26" t="n">
         <v>456.2333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>758731.7206</v>
       </c>
       <c r="G27" t="n">
+        <v>455.8666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>456.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>628768.5653</v>
       </c>
       <c r="G28" t="n">
+        <v>455.8666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>456.55</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>1157202.691329759</v>
       </c>
       <c r="G29" t="n">
+        <v>455.8666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>456.6333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>2813916.662290393</v>
       </c>
       <c r="G30" t="n">
+        <v>455.7333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>456.65</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>4026177.4175</v>
       </c>
       <c r="G31" t="n">
+        <v>455.7333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>456.6</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>4130382.8316</v>
       </c>
       <c r="G32" t="n">
+        <v>455.7333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>456.5</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>3645972.2479</v>
       </c>
       <c r="G33" t="n">
+        <v>455.8</v>
+      </c>
+      <c r="H33" t="n">
         <v>456.4166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1368791.992009607</v>
       </c>
       <c r="G34" t="n">
+        <v>456.0666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>456.4</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>2080196.7889</v>
       </c>
       <c r="G35" t="n">
+        <v>456.4</v>
+      </c>
+      <c r="H35" t="n">
         <v>456.4166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>891863.806</v>
       </c>
       <c r="G36" t="n">
+        <v>456.7333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>456.4333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>2013822.074714597</v>
       </c>
       <c r="G37" t="n">
+        <v>457</v>
+      </c>
+      <c r="H37" t="n">
         <v>456.4666666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>868800.871517353</v>
       </c>
       <c r="G38" t="n">
+        <v>457.2666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>456.4833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1609912.5127</v>
       </c>
       <c r="G39" t="n">
+        <v>457.6</v>
+      </c>
+      <c r="H39" t="n">
         <v>456.5333333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>144143.410782647</v>
       </c>
       <c r="G40" t="n">
+        <v>458</v>
+      </c>
+      <c r="H40" t="n">
         <v>456.6833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>10570.936635077</v>
       </c>
       <c r="G41" t="n">
+        <v>458.4</v>
+      </c>
+      <c r="H41" t="n">
         <v>456.85</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>15167.7855</v>
       </c>
       <c r="G42" t="n">
+        <v>459.0666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>457.05</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>33084.959</v>
       </c>
       <c r="G43" t="n">
+        <v>460.2</v>
+      </c>
+      <c r="H43" t="n">
         <v>457.3833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>39093.8493</v>
       </c>
       <c r="G44" t="n">
+        <v>461.3333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>457.7</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>6532.6407</v>
       </c>
       <c r="G45" t="n">
+        <v>462.2</v>
+      </c>
+      <c r="H45" t="n">
         <v>457.9666666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>2256.6573</v>
       </c>
       <c r="G46" t="n">
+        <v>462.8666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>458.1166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>4024.5933</v>
       </c>
       <c r="G47" t="n">
+        <v>463.6</v>
+      </c>
+      <c r="H47" t="n">
         <v>458.25</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>4345.0927</v>
       </c>
       <c r="G48" t="n">
+        <v>464.3333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>458.5</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>2564.807037313</v>
       </c>
       <c r="G49" t="n">
+        <v>464.8666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>458.7166666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>6963.6576</v>
       </c>
       <c r="G50" t="n">
+        <v>465.5333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>458.8833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>19965.029262687</v>
       </c>
       <c r="G51" t="n">
+        <v>466.3333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>459.1166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>30611.721549263</v>
       </c>
       <c r="G52" t="n">
+        <v>467.3333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>459.4</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>70730.803350737</v>
       </c>
       <c r="G53" t="n">
+        <v>468.6666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>459.8833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>3670.7871</v>
       </c>
       <c r="G54" t="n">
+        <v>469.7333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>460.2833333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>3674.8505</v>
       </c>
       <c r="G55" t="n">
+        <v>470.9333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>460.75</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>5401.6727</v>
       </c>
       <c r="G56" t="n">
+        <v>471.8</v>
+      </c>
+      <c r="H56" t="n">
         <v>461.1666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>3106.593433611</v>
       </c>
       <c r="G57" t="n">
+        <v>472.2666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>461.4666666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>12539.370650939</v>
       </c>
       <c r="G58" t="n">
+        <v>472.6</v>
+      </c>
+      <c r="H58" t="n">
         <v>461.9166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>14850.88751545</v>
       </c>
       <c r="G59" t="n">
+        <v>472.8666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>462.1833333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>4251.6027</v>
       </c>
       <c r="G60" t="n">
+        <v>473.5333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>462.5333333333334</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>43.5916</v>
       </c>
       <c r="G61" t="n">
+        <v>474.4</v>
+      </c>
+      <c r="H61" t="n">
         <v>462.9666666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>12151.6828</v>
       </c>
       <c r="G62" t="n">
+        <v>474.8666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>463.25</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>2023.668</v>
       </c>
       <c r="G63" t="n">
+        <v>475.2</v>
+      </c>
+      <c r="H63" t="n">
         <v>463.4333333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>886.4087</v>
       </c>
       <c r="G64" t="n">
+        <v>475.7333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>463.7333333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>725.6802</v>
       </c>
       <c r="G65" t="n">
+        <v>476.1333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>464</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>10339.0337</v>
       </c>
       <c r="G66" t="n">
+        <v>476.0666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>464.1666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>4832.952290486</v>
       </c>
       <c r="G67" t="n">
+        <v>476</v>
+      </c>
+      <c r="H67" t="n">
         <v>464.4166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>1139.4832</v>
       </c>
       <c r="G68" t="n">
+        <v>475.4666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>464.6</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>5764.1785</v>
       </c>
       <c r="G69" t="n">
+        <v>474.8</v>
+      </c>
+      <c r="H69" t="n">
         <v>464.6833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>5221.1802</v>
       </c>
       <c r="G70" t="n">
+        <v>473.7333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>464.7166666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>34882.7273</v>
       </c>
       <c r="G71" t="n">
+        <v>472.7333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>464.7333333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1947.1018</v>
       </c>
       <c r="G72" t="n">
+        <v>472</v>
+      </c>
+      <c r="H72" t="n">
         <v>464.8</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>11218.646450107</v>
       </c>
       <c r="G73" t="n">
+        <v>470.8666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>464.8833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>6726.1403</v>
       </c>
       <c r="G74" t="n">
+        <v>469.6</v>
+      </c>
+      <c r="H74" t="n">
         <v>464.9166666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,24 +3227,21 @@
         <v>21790.9416</v>
       </c>
       <c r="G75" t="n">
+        <v>467.7333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>464.8</v>
       </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3044,24 +3265,21 @@
         <v>905.5431</v>
       </c>
       <c r="G76" t="n">
+        <v>466.0666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>464.7666666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3088,21 +3306,18 @@
         <v>464.7333333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>464.7333333333333</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,22 +3341,21 @@
         <v>876147.3589</v>
       </c>
       <c r="G78" t="n">
+        <v>463.6666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>464.75</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3165,24 +3379,21 @@
         <v>348707.1363</v>
       </c>
       <c r="G79" t="n">
+        <v>462.6</v>
+      </c>
+      <c r="H79" t="n">
         <v>464.8166666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3206,24 +3417,21 @@
         <v>27634.2537</v>
       </c>
       <c r="G80" t="n">
+        <v>461.8666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>464.9833333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,22 +3455,21 @@
         <v>87551.7981</v>
       </c>
       <c r="G81" t="n">
+        <v>461.7333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>465.2166666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,22 +3493,21 @@
         <v>322895.779100854</v>
       </c>
       <c r="G82" t="n">
+        <v>461.4</v>
+      </c>
+      <c r="H82" t="n">
         <v>465.4333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3325,22 +3531,21 @@
         <v>2343633.2153</v>
       </c>
       <c r="G83" t="n">
+        <v>461</v>
+      </c>
+      <c r="H83" t="n">
         <v>465.6</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,22 +3569,21 @@
         <v>3025043.746</v>
       </c>
       <c r="G84" t="n">
+        <v>461</v>
+      </c>
+      <c r="H84" t="n">
         <v>465.7833333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,22 +3607,21 @@
         <v>1814077.2507</v>
       </c>
       <c r="G85" t="n">
+        <v>460.9333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>465.9</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3442,22 +3645,21 @@
         <v>1411532.1006</v>
       </c>
       <c r="G86" t="n">
+        <v>461.0666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>466</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3481,22 +3683,21 @@
         <v>695616.5509</v>
       </c>
       <c r="G87" t="n">
+        <v>461</v>
+      </c>
+      <c r="H87" t="n">
         <v>466.0833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3520,22 +3721,21 @@
         <v>2514.5518</v>
       </c>
       <c r="G88" t="n">
+        <v>460.5333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>466.05</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,22 +3759,21 @@
         <v>17581.8235</v>
       </c>
       <c r="G89" t="n">
+        <v>460.7333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>466.1333333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,22 +3797,21 @@
         <v>2038.656</v>
       </c>
       <c r="G90" t="n">
+        <v>461</v>
+      </c>
+      <c r="H90" t="n">
         <v>466.1166666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3637,22 +3835,21 @@
         <v>327.413043478</v>
       </c>
       <c r="G91" t="n">
+        <v>461.3333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>466.1666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3676,22 +3873,21 @@
         <v>50</v>
       </c>
       <c r="G92" t="n">
+        <v>461.6666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>466.2166666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3715,22 +3911,21 @@
         <v>2266</v>
       </c>
       <c r="G93" t="n">
+        <v>461.7333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>466.2333333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,22 +3949,21 @@
         <v>7576.0921</v>
       </c>
       <c r="G94" t="n">
+        <v>461.6</v>
+      </c>
+      <c r="H94" t="n">
         <v>466.2</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,22 +3987,21 @@
         <v>5877.57</v>
       </c>
       <c r="G95" t="n">
+        <v>461.0666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>466.15</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3832,22 +4025,21 @@
         <v>5376.2858</v>
       </c>
       <c r="G96" t="n">
+        <v>460.3333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>466.1166666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3871,22 +4063,21 @@
         <v>5567.4011</v>
       </c>
       <c r="G97" t="n">
+        <v>459.5333333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>466.0666666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3910,22 +4101,21 @@
         <v>3306.0699</v>
       </c>
       <c r="G98" t="n">
+        <v>459</v>
+      </c>
+      <c r="H98" t="n">
         <v>466.0333333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,22 +4139,21 @@
         <v>417.2431</v>
       </c>
       <c r="G99" t="n">
+        <v>458.5333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>466.0166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,22 +4177,21 @@
         <v>2555.543092374</v>
       </c>
       <c r="G100" t="n">
+        <v>458.3333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>465.9833333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4027,22 +4215,21 @@
         <v>857.2741</v>
       </c>
       <c r="G101" t="n">
+        <v>458.0666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>465.9166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,22 +4253,21 @@
         <v>970.5535</v>
       </c>
       <c r="G102" t="n">
+        <v>458</v>
+      </c>
+      <c r="H102" t="n">
         <v>465.8166666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4105,22 +4291,21 @@
         <v>5092.216407626</v>
       </c>
       <c r="G103" t="n">
+        <v>458.5333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>465.6333333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,22 +4329,21 @@
         <v>5961.7747</v>
       </c>
       <c r="G104" t="n">
+        <v>458.9333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>465.5333333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4183,22 +4367,21 @@
         <v>1949.5623</v>
       </c>
       <c r="G105" t="n">
+        <v>459.6</v>
+      </c>
+      <c r="H105" t="n">
         <v>465.4666666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,22 +4405,21 @@
         <v>5058.7848</v>
       </c>
       <c r="G106" t="n">
+        <v>460</v>
+      </c>
+      <c r="H106" t="n">
         <v>465.45</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4261,22 +4443,21 @@
         <v>3977.2712</v>
       </c>
       <c r="G107" t="n">
+        <v>460.4</v>
+      </c>
+      <c r="H107" t="n">
         <v>465.4166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4300,22 +4481,21 @@
         <v>2100.2842</v>
       </c>
       <c r="G108" t="n">
+        <v>460.9333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>465.3833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4339,22 +4519,21 @@
         <v>2126.4656</v>
       </c>
       <c r="G109" t="n">
+        <v>461.4666666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>465.35</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,22 +4557,21 @@
         <v>5815.1385</v>
       </c>
       <c r="G110" t="n">
+        <v>462</v>
+      </c>
+      <c r="H110" t="n">
         <v>465.2666666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4417,22 +4595,21 @@
         <v>5059.748647121</v>
       </c>
       <c r="G111" t="n">
+        <v>462.7333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>465.2166666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,22 +4633,21 @@
         <v>2482.594</v>
       </c>
       <c r="G112" t="n">
+        <v>463.4666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>465.1</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4495,22 +4671,21 @@
         <v>6914.0021</v>
       </c>
       <c r="G113" t="n">
+        <v>463.8666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>464.8333333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,22 +4709,21 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
+        <v>464.3333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>464.6666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4573,22 +4747,21 @@
         <v>543.7395</v>
       </c>
       <c r="G115" t="n">
+        <v>464.6666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>464.4166666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,22 +4785,21 @@
         <v>337.33525431</v>
       </c>
       <c r="G116" t="n">
+        <v>465.0666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>464.2333333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4651,22 +4823,21 @@
         <v>14798.1133</v>
       </c>
       <c r="G117" t="n">
+        <v>465.0666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>464.0166666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,22 +4861,21 @@
         <v>4397.3165</v>
       </c>
       <c r="G118" t="n">
+        <v>464.7333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>463.6666666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,22 +4899,21 @@
         <v>5398.3357</v>
       </c>
       <c r="G119" t="n">
+        <v>464.7333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>463.5</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4768,22 +4937,21 @@
         <v>1216.510761538</v>
       </c>
       <c r="G120" t="n">
+        <v>464.6</v>
+      </c>
+      <c r="H120" t="n">
         <v>463.2333333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,22 +4975,21 @@
         <v>100</v>
       </c>
       <c r="G121" t="n">
+        <v>464.6</v>
+      </c>
+      <c r="H121" t="n">
         <v>463</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,22 +5013,21 @@
         <v>3706.1073</v>
       </c>
       <c r="G122" t="n">
+        <v>464.6</v>
+      </c>
+      <c r="H122" t="n">
         <v>462.85</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,22 +5051,21 @@
         <v>1069.8081</v>
       </c>
       <c r="G123" t="n">
+        <v>464.4666666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>462.7</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,22 +5089,21 @@
         <v>1726.2231</v>
       </c>
       <c r="G124" t="n">
+        <v>464.3333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>462.5</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,22 +5127,21 @@
         <v>369.8822</v>
       </c>
       <c r="G125" t="n">
+        <v>464.3333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>462.3166666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5002,22 +5165,21 @@
         <v>1750.9971</v>
       </c>
       <c r="G126" t="n">
+        <v>463.8666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>462.1666666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5041,22 +5203,21 @@
         <v>210.4446</v>
       </c>
       <c r="G127" t="n">
+        <v>463.2666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>461.9166666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5080,22 +5241,27 @@
         <v>1980.3462</v>
       </c>
       <c r="G128" t="n">
+        <v>463.2</v>
+      </c>
+      <c r="H128" t="n">
         <v>461.7666666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>458</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,22 +5285,27 @@
         <v>5.1652</v>
       </c>
       <c r="G129" t="n">
+        <v>462.6666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>461.6333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>463</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5158,22 +5329,27 @@
         <v>30</v>
       </c>
       <c r="G130" t="n">
+        <v>462.5333333333334</v>
+      </c>
+      <c r="H130" t="n">
         <v>461.6166666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>458</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5197,22 +5373,27 @@
         <v>155</v>
       </c>
       <c r="G131" t="n">
+        <v>462.4666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>461.6666666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>462</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,22 +5417,27 @@
         <v>5</v>
       </c>
       <c r="G132" t="n">
+        <v>462.5333333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>461.65</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>463</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5275,22 +5461,25 @@
         <v>1.4135</v>
       </c>
       <c r="G133" t="n">
+        <v>462.7333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>461.6333333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,22 +5503,27 @@
         <v>5</v>
       </c>
       <c r="G134" t="n">
+        <v>462.4</v>
+      </c>
+      <c r="H134" t="n">
         <v>461.7</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>461</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5353,22 +5547,25 @@
         <v>15</v>
       </c>
       <c r="G135" t="n">
+        <v>462.3333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>461.8833333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,22 +5589,25 @@
         <v>4306.5143</v>
       </c>
       <c r="G136" t="n">
+        <v>461.7333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>461.9166666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5431,22 +5631,27 @@
         <v>1093.3385</v>
       </c>
       <c r="G137" t="n">
+        <v>461.2</v>
+      </c>
+      <c r="H137" t="n">
         <v>461.9666666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>457</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,22 +5675,27 @@
         <v>410.6475</v>
       </c>
       <c r="G138" t="n">
+        <v>460.8666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>462</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>458</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5509,22 +5719,27 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
+        <v>460.8</v>
+      </c>
+      <c r="H139" t="n">
         <v>462.05</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>459</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,22 +5763,27 @@
         <v>2484.3109</v>
       </c>
       <c r="G140" t="n">
+        <v>460.4</v>
+      </c>
+      <c r="H140" t="n">
         <v>461.95</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>462</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5587,22 +5807,27 @@
         <v>2</v>
       </c>
       <c r="G141" t="n">
+        <v>460.1333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>461.7666666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>457</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5626,22 +5851,27 @@
         <v>72.8505</v>
       </c>
       <c r="G142" t="n">
+        <v>460.1333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>461.6</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>457</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5665,22 +5895,27 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
+        <v>460</v>
+      </c>
+      <c r="H143" t="n">
         <v>461.5166666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>458</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5704,22 +5939,27 @@
         <v>9433.799629122001</v>
       </c>
       <c r="G144" t="n">
+        <v>460.6</v>
+      </c>
+      <c r="H144" t="n">
         <v>461.5333333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>461</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5743,22 +5983,27 @@
         <v>1218.5032</v>
       </c>
       <c r="G145" t="n">
+        <v>460.8</v>
+      </c>
+      <c r="H145" t="n">
         <v>461.5833333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>467</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5782,22 +6027,25 @@
         <v>1.5</v>
       </c>
       <c r="G146" t="n">
+        <v>460.6666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>461.5666666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,22 +6069,25 @@
         <v>81.56229999999999</v>
       </c>
       <c r="G147" t="n">
+        <v>460.7333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>461.5833333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5860,22 +6111,27 @@
         <v>8220.3246</v>
       </c>
       <c r="G148" t="n">
+        <v>460.7333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>461.6833333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>462</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5899,22 +6155,27 @@
         <v>27.6968</v>
       </c>
       <c r="G149" t="n">
+        <v>460.6</v>
+      </c>
+      <c r="H149" t="n">
         <v>461.6666666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>461</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5938,22 +6199,27 @@
         <v>13514.1822</v>
       </c>
       <c r="G150" t="n">
+        <v>460.2</v>
+      </c>
+      <c r="H150" t="n">
         <v>461.6833333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>461</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,22 +6243,27 @@
         <v>21.645021645</v>
       </c>
       <c r="G151" t="n">
+        <v>460.5333333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>461.7166666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>457</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,22 +6287,27 @@
         <v>234.7651</v>
       </c>
       <c r="G152" t="n">
+        <v>460.5333333333334</v>
+      </c>
+      <c r="H152" t="n">
         <v>461.6833333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>462</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,22 +6331,27 @@
         <v>1.2554</v>
       </c>
       <c r="G153" t="n">
+        <v>460.7333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>461.75</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>458</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6094,22 +6375,27 @@
         <v>1.2575</v>
       </c>
       <c r="G154" t="n">
+        <v>460.7333333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>461.8333333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>462</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6133,22 +6419,25 @@
         <v>1281.0186</v>
       </c>
       <c r="G155" t="n">
+        <v>460.8</v>
+      </c>
+      <c r="H155" t="n">
         <v>461.8833333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6172,22 +6461,27 @@
         <v>659.5029</v>
       </c>
       <c r="G156" t="n">
+        <v>461.1333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>461.9666666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>458</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,22 +6505,25 @@
         <v>850.7618</v>
       </c>
       <c r="G157" t="n">
+        <v>461.1333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>462</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6250,22 +6547,25 @@
         <v>21544.108</v>
       </c>
       <c r="G158" t="n">
+        <v>460.8666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>461.9833333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6289,22 +6589,25 @@
         <v>3</v>
       </c>
       <c r="G159" t="n">
+        <v>460.5333333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>462.0333333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,22 +6631,25 @@
         <v>33431.8647</v>
       </c>
       <c r="G160" t="n">
+        <v>460.3333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>462.0833333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6367,22 +6673,25 @@
         <v>149844.7962</v>
       </c>
       <c r="G161" t="n">
+        <v>460.3333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>462.1333333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6406,22 +6715,25 @@
         <v>295500.0281</v>
       </c>
       <c r="G162" t="n">
+        <v>460.2</v>
+      </c>
+      <c r="H162" t="n">
         <v>462.1333333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6445,22 +6757,25 @@
         <v>410001.0375</v>
       </c>
       <c r="G163" t="n">
+        <v>460.1333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>462.0833333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,22 +6799,25 @@
         <v>425000.0379</v>
       </c>
       <c r="G164" t="n">
+        <v>460.0666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>461.95</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6523,22 +6841,25 @@
         <v>400000.036</v>
       </c>
       <c r="G165" t="n">
+        <v>460.2666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>461.85</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6562,22 +6883,27 @@
         <v>360000.0326</v>
       </c>
       <c r="G166" t="n">
+        <v>460.1333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>461.75</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>460</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6601,22 +6927,27 @@
         <v>385049.3182</v>
       </c>
       <c r="G167" t="n">
+        <v>460.2666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>461.65</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>460</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6640,22 +6971,27 @@
         <v>340000.0309</v>
       </c>
       <c r="G168" t="n">
+        <v>460.1333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>461.55</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>460</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,22 +7015,27 @@
         <v>440588.1131</v>
       </c>
       <c r="G169" t="n">
+        <v>460</v>
+      </c>
+      <c r="H169" t="n">
         <v>461.4666666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>460</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6718,22 +7059,27 @@
         <v>599034.0146</v>
       </c>
       <c r="G170" t="n">
+        <v>460.0666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>461.4</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>460</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6757,22 +7103,27 @@
         <v>526567.4072</v>
       </c>
       <c r="G171" t="n">
+        <v>459.8</v>
+      </c>
+      <c r="H171" t="n">
         <v>461.2333333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>459</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6796,22 +7147,27 @@
         <v>1321280.7997</v>
       </c>
       <c r="G172" t="n">
+        <v>459.8</v>
+      </c>
+      <c r="H172" t="n">
         <v>461.0833333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>458</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6835,22 +7191,27 @@
         <v>1200809.6596</v>
       </c>
       <c r="G173" t="n">
+        <v>459.8666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>460.9833333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>458</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,22 +7235,27 @@
         <v>1298647.5472</v>
       </c>
       <c r="G174" t="n">
+        <v>459.6</v>
+      </c>
+      <c r="H174" t="n">
         <v>460.85</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>458</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6913,22 +7279,27 @@
         <v>869808.7831999999</v>
       </c>
       <c r="G175" t="n">
+        <v>459.2666666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>460.7333333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>458</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6952,22 +7323,27 @@
         <v>1389176.8496</v>
       </c>
       <c r="G176" t="n">
+        <v>459</v>
+      </c>
+      <c r="H176" t="n">
         <v>460.6166666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>457</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6991,22 +7367,27 @@
         <v>1241836.3085</v>
       </c>
       <c r="G177" t="n">
+        <v>458.8</v>
+      </c>
+      <c r="H177" t="n">
         <v>460.5666666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>457</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7030,22 +7411,27 @@
         <v>1584040.4237</v>
       </c>
       <c r="G178" t="n">
+        <v>458.6</v>
+      </c>
+      <c r="H178" t="n">
         <v>460.55</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>457</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7069,22 +7455,27 @@
         <v>1531509.4444</v>
       </c>
       <c r="G179" t="n">
+        <v>458.4</v>
+      </c>
+      <c r="H179" t="n">
         <v>460.3666666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>457</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7108,22 +7499,27 @@
         <v>1386210.0368</v>
       </c>
       <c r="G180" t="n">
+        <v>458.2</v>
+      </c>
+      <c r="H180" t="n">
         <v>460.25</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>457</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7147,22 +7543,27 @@
         <v>495298.0825</v>
       </c>
       <c r="G181" t="n">
+        <v>458</v>
+      </c>
+      <c r="H181" t="n">
         <v>460.1</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>457</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7186,22 +7587,27 @@
         <v>720000.0214</v>
       </c>
       <c r="G182" t="n">
+        <v>457.8666666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>459.9666666666666</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>457</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7225,22 +7631,27 @@
         <v>688000.0204</v>
       </c>
       <c r="G183" t="n">
+        <v>457.7333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>459.8666666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>458</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7264,22 +7675,25 @@
         <v>322000.0111</v>
       </c>
       <c r="G184" t="n">
+        <v>457.6</v>
+      </c>
+      <c r="H184" t="n">
         <v>459.7833333333334</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7303,22 +7717,25 @@
         <v>73482.53350000001</v>
       </c>
       <c r="G185" t="n">
+        <v>457.6</v>
+      </c>
+      <c r="H185" t="n">
         <v>459.7166666666666</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7342,22 +7759,25 @@
         <v>270233.9998</v>
       </c>
       <c r="G186" t="n">
+        <v>457.6</v>
+      </c>
+      <c r="H186" t="n">
         <v>459.6666666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7381,22 +7801,25 @@
         <v>555024.0605</v>
       </c>
       <c r="G187" t="n">
+        <v>457.6</v>
+      </c>
+      <c r="H187" t="n">
         <v>459.6666666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7420,22 +7843,25 @@
         <v>185055.5476</v>
       </c>
       <c r="G188" t="n">
+        <v>457.6666666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>459.6</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7459,22 +7885,25 @@
         <v>69653.6347</v>
       </c>
       <c r="G189" t="n">
+        <v>457.7333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>459.6166666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7498,22 +7927,25 @@
         <v>195284.9851</v>
       </c>
       <c r="G190" t="n">
+        <v>457.7333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>459.5333333333334</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,22 +7969,25 @@
         <v>500721.6752</v>
       </c>
       <c r="G191" t="n">
+        <v>457.7333333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>459.4333333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7576,22 +8011,25 @@
         <v>592800.018</v>
       </c>
       <c r="G192" t="n">
+        <v>457.7333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>459.3666666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7615,22 +8053,25 @@
         <v>518400.0159</v>
       </c>
       <c r="G193" t="n">
+        <v>457.7333333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>459.3</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7654,22 +8095,25 @@
         <v>94001.0104</v>
       </c>
       <c r="G194" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="H194" t="n">
         <v>459.2166666666666</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,22 +8137,25 @@
         <v>492024</v>
       </c>
       <c r="G195" t="n">
+        <v>457.8666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>459.1333333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7732,22 +8179,25 @@
         <v>564000.0212</v>
       </c>
       <c r="G196" t="n">
+        <v>457.9333333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>459.15</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7771,22 +8221,25 @@
         <v>516000.0193</v>
       </c>
       <c r="G197" t="n">
+        <v>457.9333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>459.15</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7810,22 +8263,25 @@
         <v>268537.7921</v>
       </c>
       <c r="G198" t="n">
+        <v>457.8666666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>459.1166666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7849,22 +8305,25 @@
         <v>422000.0129</v>
       </c>
       <c r="G199" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="H199" t="n">
         <v>459.0333333333334</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7888,22 +8347,25 @@
         <v>625019.068</v>
       </c>
       <c r="G200" t="n">
+        <v>457.6666666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>459.0333333333334</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7927,22 +8389,25 @@
         <v>48001.0067</v>
       </c>
       <c r="G201" t="n">
+        <v>457.6666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>459.05</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7966,22 +8431,25 @@
         <v>263752.651687581</v>
       </c>
       <c r="G202" t="n">
+        <v>457.6666666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>459.05</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8005,22 +8473,25 @@
         <v>275126.3086</v>
       </c>
       <c r="G203" t="n">
-        <v>459</v>
+        <v>457.6</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8044,22 +8515,25 @@
         <v>1</v>
       </c>
       <c r="G204" t="n">
+        <v>457.4666666666666</v>
+      </c>
+      <c r="H204" t="n">
         <v>458.8333333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8083,22 +8557,25 @@
         <v>1465.171892374</v>
       </c>
       <c r="G205" t="n">
+        <v>457.4666666666666</v>
+      </c>
+      <c r="H205" t="n">
         <v>458.7</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8122,22 +8599,25 @@
         <v>133200.0009</v>
       </c>
       <c r="G206" t="n">
+        <v>457.5333333333334</v>
+      </c>
+      <c r="H206" t="n">
         <v>458.65</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8161,22 +8641,25 @@
         <v>146764.6696</v>
       </c>
       <c r="G207" t="n">
+        <v>457.6666666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>458.6</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,22 +8683,25 @@
         <v>857003.1303</v>
       </c>
       <c r="G208" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="H208" t="n">
         <v>458.5666666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8239,22 +8725,25 @@
         <v>809640.0194</v>
       </c>
       <c r="G209" t="n">
+        <v>457.8666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>458.5333333333334</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8278,22 +8767,25 @@
         <v>1016480.0233</v>
       </c>
       <c r="G210" t="n">
+        <v>457.9333333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>458.5666666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8317,22 +8809,25 @@
         <v>938120.0212</v>
       </c>
       <c r="G211" t="n">
+        <v>458</v>
+      </c>
+      <c r="H211" t="n">
         <v>458.5166666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8356,22 +8851,25 @@
         <v>824927.0203</v>
       </c>
       <c r="G212" t="n">
+        <v>458.0666666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>458.5333333333334</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8395,22 +8893,25 @@
         <v>932779.1379</v>
       </c>
       <c r="G213" t="n">
+        <v>458.2</v>
+      </c>
+      <c r="H213" t="n">
         <v>458.4833333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8434,22 +8935,25 @@
         <v>748001.0205</v>
       </c>
       <c r="G214" t="n">
+        <v>458.3333333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>458.4333333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8473,22 +8977,25 @@
         <v>782000.02</v>
       </c>
       <c r="G215" t="n">
+        <v>458.4666666666666</v>
+      </c>
+      <c r="H215" t="n">
         <v>458.45</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8512,22 +9019,25 @@
         <v>748000.0205</v>
       </c>
       <c r="G216" t="n">
+        <v>458.5333333333334</v>
+      </c>
+      <c r="H216" t="n">
         <v>458.4</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8551,22 +9061,25 @@
         <v>502682.013</v>
       </c>
       <c r="G217" t="n">
+        <v>458.6</v>
+      </c>
+      <c r="H217" t="n">
         <v>458.4166666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8590,22 +9103,25 @@
         <v>1</v>
       </c>
       <c r="G218" t="n">
+        <v>458.7333333333333</v>
+      </c>
+      <c r="H218" t="n">
         <v>458.4666666666666</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8629,22 +9145,25 @@
         <v>495.7826</v>
       </c>
       <c r="G219" t="n">
+        <v>458.9333333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>458.4333333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8668,22 +9187,25 @@
         <v>2229.6931</v>
       </c>
       <c r="G220" t="n">
+        <v>459.1333333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>458.4</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8707,22 +9229,25 @@
         <v>876.8064000000001</v>
       </c>
       <c r="G221" t="n">
+        <v>459.8666666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>458.5333333333334</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8746,22 +9271,25 @@
         <v>259.7911</v>
       </c>
       <c r="G222" t="n">
+        <v>460.6</v>
+      </c>
+      <c r="H222" t="n">
         <v>458.7</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8785,22 +9313,25 @@
         <v>3375.6042</v>
       </c>
       <c r="G223" t="n">
+        <v>461.2666666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>458.85</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8824,22 +9355,25 @@
         <v>2193.7956</v>
       </c>
       <c r="G224" t="n">
+        <v>461.1333333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>458.8</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,22 +9397,25 @@
         <v>2817.9372</v>
       </c>
       <c r="G225" t="n">
+        <v>461.3333333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>458.8333333333333</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8902,22 +9439,25 @@
         <v>1893.3684</v>
       </c>
       <c r="G226" t="n">
+        <v>461.2666666666667</v>
+      </c>
+      <c r="H226" t="n">
         <v>458.8</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8941,22 +9481,25 @@
         <v>2</v>
       </c>
       <c r="G227" t="n">
+        <v>461.2666666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>458.7833333333334</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8980,22 +9523,25 @@
         <v>1</v>
       </c>
       <c r="G228" t="n">
+        <v>461.6</v>
+      </c>
+      <c r="H228" t="n">
         <v>458.85</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9019,22 +9565,25 @@
         <v>68310.6202</v>
       </c>
       <c r="G229" t="n">
+        <v>461.8666666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>458.9</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9058,22 +9607,25 @@
         <v>50542.4646</v>
       </c>
       <c r="G230" t="n">
+        <v>462.0666666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>458.95</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9097,22 +9649,25 @@
         <v>43511.1336</v>
       </c>
       <c r="G231" t="n">
-        <v>459</v>
+        <v>462.2</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9136,22 +9691,27 @@
         <v>9751.341899999999</v>
       </c>
       <c r="G232" t="n">
+        <v>462.6666666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>459.1333333333333</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>461</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9175,22 +9735,25 @@
         <v>508.7956</v>
       </c>
       <c r="G233" t="n">
+        <v>462.6666666666667</v>
+      </c>
+      <c r="H233" t="n">
         <v>459.1666666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9214,22 +9777,25 @@
         <v>5903.2017</v>
       </c>
       <c r="G234" t="n">
+        <v>462.6666666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>459.2</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9253,22 +9819,25 @@
         <v>1</v>
       </c>
       <c r="G235" t="n">
+        <v>462.8666666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>459.3</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9292,22 +9861,25 @@
         <v>949800</v>
       </c>
       <c r="G236" t="n">
+        <v>462.4</v>
+      </c>
+      <c r="H236" t="n">
         <v>459.3833333333333</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9331,22 +9903,25 @@
         <v>601801</v>
       </c>
       <c r="G237" t="n">
+        <v>461.8666666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>459.4666666666666</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9370,22 +9945,25 @@
         <v>203201</v>
       </c>
       <c r="G238" t="n">
+        <v>461.4666666666666</v>
+      </c>
+      <c r="H238" t="n">
         <v>459.5666666666667</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9409,22 +9987,25 @@
         <v>10</v>
       </c>
       <c r="G239" t="n">
+        <v>461.9333333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>459.6833333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9448,22 +10029,25 @@
         <v>3.6</v>
       </c>
       <c r="G240" t="n">
+        <v>461.8666666666667</v>
+      </c>
+      <c r="H240" t="n">
         <v>459.75</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9487,22 +10071,25 @@
         <v>3.5</v>
       </c>
       <c r="G241" t="n">
+        <v>462</v>
+      </c>
+      <c r="H241" t="n">
         <v>459.8</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9526,22 +10113,25 @@
         <v>14561.5948</v>
       </c>
       <c r="G242" t="n">
+        <v>462.2666666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>459.8833333333333</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9565,22 +10155,25 @@
         <v>1541221.9869</v>
       </c>
       <c r="G243" t="n">
+        <v>462.3333333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>460</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9604,22 +10197,25 @@
         <v>3535801</v>
       </c>
       <c r="G244" t="n">
+        <v>462.4666666666666</v>
+      </c>
+      <c r="H244" t="n">
         <v>460.1166666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9643,22 +10239,25 @@
         <v>2166400</v>
       </c>
       <c r="G245" t="n">
+        <v>462.6666666666667</v>
+      </c>
+      <c r="H245" t="n">
         <v>460.2166666666666</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9682,22 +10281,25 @@
         <v>3601085.4472</v>
       </c>
       <c r="G246" t="n">
+        <v>462.9333333333333</v>
+      </c>
+      <c r="H246" t="n">
         <v>460.3333333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9721,22 +10323,25 @@
         <v>3943068.246</v>
       </c>
       <c r="G247" t="n">
+        <v>462.8</v>
+      </c>
+      <c r="H247" t="n">
         <v>460.4333333333333</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9760,22 +10365,25 @@
         <v>4337050.7067</v>
       </c>
       <c r="G248" t="n">
+        <v>463</v>
+      </c>
+      <c r="H248" t="n">
         <v>460.5</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9799,22 +10407,25 @@
         <v>5130000</v>
       </c>
       <c r="G249" t="n">
+        <v>463.2</v>
+      </c>
+      <c r="H249" t="n">
         <v>460.5666666666667</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9838,22 +10449,25 @@
         <v>5238039.2339</v>
       </c>
       <c r="G250" t="n">
+        <v>463.2</v>
+      </c>
+      <c r="H250" t="n">
         <v>460.6666666666667</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9877,22 +10491,25 @@
         <v>8832074.073799999</v>
       </c>
       <c r="G251" t="n">
+        <v>463.2666666666667</v>
+      </c>
+      <c r="H251" t="n">
         <v>460.7666666666667</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9916,22 +10533,25 @@
         <v>2993493.232199785</v>
       </c>
       <c r="G252" t="n">
+        <v>463.5333333333334</v>
+      </c>
+      <c r="H252" t="n">
         <v>460.9166666666667</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9955,22 +10575,25 @@
         <v>131821.3946</v>
       </c>
       <c r="G253" t="n">
+        <v>463.6666666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>461.05</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9994,22 +10617,25 @@
         <v>6643.1156</v>
       </c>
       <c r="G254" t="n">
+        <v>463.2666666666667</v>
+      </c>
+      <c r="H254" t="n">
         <v>461.05</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10033,22 +10659,461 @@
         <v>26.052</v>
       </c>
       <c r="G255" t="n">
+        <v>463.2</v>
+      </c>
+      <c r="H255" t="n">
         <v>461.0833333333333</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>458</v>
+      </c>
+      <c r="C256" t="n">
+        <v>458</v>
+      </c>
+      <c r="D256" t="n">
+        <v>458</v>
+      </c>
+      <c r="E256" t="n">
+        <v>458</v>
+      </c>
+      <c r="F256" t="n">
+        <v>21.7864</v>
+      </c>
+      <c r="G256" t="n">
+        <v>463.0666666666667</v>
+      </c>
+      <c r="H256" t="n">
+        <v>461.0833333333333</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>460</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>459</v>
+      </c>
+      <c r="C257" t="n">
+        <v>459</v>
+      </c>
+      <c r="D257" t="n">
+        <v>459</v>
+      </c>
+      <c r="E257" t="n">
+        <v>459</v>
+      </c>
+      <c r="F257" t="n">
+        <v>77.23699999999999</v>
+      </c>
+      <c r="G257" t="n">
+        <v>462.8</v>
+      </c>
+      <c r="H257" t="n">
+        <v>461.1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>458</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>462</v>
+      </c>
+      <c r="C258" t="n">
+        <v>462</v>
+      </c>
+      <c r="D258" t="n">
+        <v>462</v>
+      </c>
+      <c r="E258" t="n">
+        <v>462</v>
+      </c>
+      <c r="F258" t="n">
+        <v>4.4847</v>
+      </c>
+      <c r="G258" t="n">
+        <v>462.6</v>
+      </c>
+      <c r="H258" t="n">
+        <v>461.1833333333333</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>459</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>462</v>
+      </c>
+      <c r="C259" t="n">
+        <v>462</v>
+      </c>
+      <c r="D259" t="n">
+        <v>462</v>
+      </c>
+      <c r="E259" t="n">
+        <v>462</v>
+      </c>
+      <c r="F259" t="n">
+        <v>32.8933</v>
+      </c>
+      <c r="G259" t="n">
+        <v>462.4</v>
+      </c>
+      <c r="H259" t="n">
+        <v>461.2666666666667</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>462</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>459</v>
+      </c>
+      <c r="C260" t="n">
+        <v>458</v>
+      </c>
+      <c r="D260" t="n">
+        <v>459</v>
+      </c>
+      <c r="E260" t="n">
+        <v>458</v>
+      </c>
+      <c r="F260" t="n">
+        <v>19035.8621</v>
+      </c>
+      <c r="G260" t="n">
+        <v>461.9333333333333</v>
+      </c>
+      <c r="H260" t="n">
+        <v>461.2833333333334</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>458</v>
+      </c>
+      <c r="C261" t="n">
+        <v>458</v>
+      </c>
+      <c r="D261" t="n">
+        <v>458</v>
+      </c>
+      <c r="E261" t="n">
+        <v>458</v>
+      </c>
+      <c r="F261" t="n">
+        <v>7467.2419</v>
+      </c>
+      <c r="G261" t="n">
+        <v>461.4666666666666</v>
+      </c>
+      <c r="H261" t="n">
+        <v>461.2833333333334</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>458</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>459</v>
+      </c>
+      <c r="C262" t="n">
+        <v>459</v>
+      </c>
+      <c r="D262" t="n">
+        <v>459</v>
+      </c>
+      <c r="E262" t="n">
+        <v>459</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2180</v>
+      </c>
+      <c r="G262" t="n">
+        <v>461.1333333333333</v>
+      </c>
+      <c r="H262" t="n">
+        <v>461.3</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>458</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>458</v>
+      </c>
+      <c r="C263" t="n">
+        <v>458</v>
+      </c>
+      <c r="D263" t="n">
+        <v>458</v>
+      </c>
+      <c r="E263" t="n">
+        <v>458</v>
+      </c>
+      <c r="F263" t="n">
+        <v>302.4475</v>
+      </c>
+      <c r="G263" t="n">
+        <v>460.8</v>
+      </c>
+      <c r="H263" t="n">
+        <v>461.3</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>459</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>458</v>
+      </c>
+      <c r="C264" t="n">
+        <v>458</v>
+      </c>
+      <c r="D264" t="n">
+        <v>458</v>
+      </c>
+      <c r="E264" t="n">
+        <v>458</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1229.6634</v>
+      </c>
+      <c r="G264" t="n">
+        <v>460.4666666666666</v>
+      </c>
+      <c r="H264" t="n">
+        <v>461.3166666666667</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>458</v>
+      </c>
+      <c r="C265" t="n">
+        <v>458</v>
+      </c>
+      <c r="D265" t="n">
+        <v>458</v>
+      </c>
+      <c r="E265" t="n">
+        <v>458</v>
+      </c>
+      <c r="F265" t="n">
+        <v>169.6627</v>
+      </c>
+      <c r="G265" t="n">
+        <v>460.1333333333333</v>
+      </c>
+      <c r="H265" t="n">
+        <v>461.3333333333333</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>458</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest DAD.xlsx
+++ b/BackTest/2019-10-30 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N323"/>
+  <dimension ref="A1:M323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>499261.5773317213</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>502600.1574317212</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>526030.4875317212</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>503648.7203317212</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>494096.3924317213</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>531418.9477317212</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>516033.9119317212</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>516700.0881317212</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>503568.4458317212</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>508515.2754367102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,21 @@
         <v>322702.5767932322</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,24 +1249,21 @@
         <v>346306.8353932322</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>440</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1362,24 +1288,21 @@
         <v>337057.0143932322</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>454</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1404,24 +1327,19 @@
         <v>380232.3211230562</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>452</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1446,24 +1364,19 @@
         <v>390309.1049051622</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>456</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1488,24 +1401,21 @@
         <v>403112.9009882432</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>460</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>460</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1530,24 +1440,21 @@
         <v>396472.2903882432</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
         <v>463</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1572,22 +1479,21 @@
         <v>386784.7400314112</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1612,22 +1518,21 @@
         <v>386738.3281314112</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1652,22 +1557,21 @@
         <v>388715.1761314112</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1692,22 +1596,21 @@
         <v>388494.9607314112</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1732,22 +1635,21 @@
         <v>391752.3034314112</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1772,22 +1674,21 @@
         <v>391299.7853314112</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1812,22 +1713,21 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1852,22 +1752,21 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1892,22 +1791,21 @@
         <v>380460.6725314112</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1932,22 +1830,21 @@
         <v>380460.6725314112</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1972,22 +1869,21 @@
         <v>381919.6958314112</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2012,22 +1908,21 @@
         <v>380878.8250314112</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2052,22 +1947,21 @@
         <v>390295.3606314112</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2092,22 +1986,21 @@
         <v>392803.0207314112</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2134,20 +2027,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2174,20 +2064,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2214,20 +2101,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2254,20 +2138,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2294,20 +2175,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2334,20 +2212,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2374,20 +2249,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2412,24 +2284,19 @@
         <v>391158.3804314111</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>452</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2454,24 +2321,19 @@
         <v>364563.5319314111</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>451</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2496,24 +2358,21 @@
         <v>368019.738431411</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
         <v>450</v>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2538,24 +2397,21 @@
         <v>362208.215331411</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
         <v>455</v>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2580,24 +2436,21 @@
         <v>367426.6970314111</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
         <v>452</v>
       </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2622,24 +2475,21 @@
         <v>367381.6970314111</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
         <v>462</v>
       </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2664,24 +2514,19 @@
         <v>359859.3862314111</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>459</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2706,24 +2551,19 @@
         <v>360353.3871375241</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>454</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2748,24 +2588,19 @@
         <v>370857.8639024471</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>458</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2790,24 +2625,19 @@
         <v>370774.7400024471</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>462</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2832,24 +2662,21 @@
         <v>371794.0101024471</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>457</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2874,24 +2701,21 @@
         <v>374290.9296024471</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>458</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>458</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2916,24 +2740,21 @@
         <v>373755.8678024471</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>460</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>460</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2958,24 +2779,19 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>458</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3000,24 +2816,19 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>461</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3042,24 +2853,21 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
         <v>461</v>
       </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3084,24 +2892,21 @@
         <v>375344.4547024471</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
         <v>461</v>
       </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3126,24 +2931,21 @@
         <v>370432.4382024471</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>459</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>459</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3168,24 +2970,21 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>458</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>458</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3210,24 +3009,21 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>457</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3252,24 +3048,21 @@
         <v>365910.8347024471</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>457</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3294,24 +3087,21 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>459</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>459</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3336,24 +3126,21 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>457</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3378,24 +3165,21 @@
         <v>362262.9360170441</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>457</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3420,24 +3204,19 @@
         <v>356180.820317044</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>456</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3462,24 +3241,19 @@
         <v>349885.032417044</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>455</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3504,24 +3278,19 @@
         <v>1158846.639817044</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>453</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3546,24 +3315,21 @@
         <v>3942873.184817044</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
         <v>454</v>
       </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3588,24 +3354,21 @@
         <v>5864063.074517044</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
         <v>455</v>
       </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3630,24 +3393,21 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
         <v>456</v>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3672,24 +3432,21 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
         <v>455</v>
       </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3714,22 +3471,21 @@
         <v>6587542.353598008</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3754,22 +3510,21 @@
         <v>6587542.353598008</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3794,22 +3549,21 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3834,22 +3588,21 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3874,22 +3627,21 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3914,22 +3666,21 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3954,22 +3705,21 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3994,22 +3744,21 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4034,22 +3783,21 @@
         <v>8585102.910907615</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4074,22 +3822,21 @@
         <v>6504906.122007615</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4114,22 +3861,21 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4154,22 +3900,21 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4194,22 +3939,21 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4234,22 +3978,21 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4274,22 +4017,21 @@
         <v>8409714.210307615</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4314,22 +4056,21 @@
         <v>8420285.146942692</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4354,22 +4095,21 @@
         <v>8435452.932442691</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4394,22 +4134,21 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4434,22 +4173,21 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4474,22 +4212,21 @@
         <v>8462005.250742693</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4514,22 +4251,21 @@
         <v>8459748.593442693</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4554,22 +4290,21 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4594,22 +4329,21 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4634,22 +4368,21 @@
         <v>8461208.379705381</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4676,20 +4409,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4714,22 +4444,21 @@
         <v>8488137.066568067</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4756,20 +4485,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4796,20 +4522,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4836,18 +4559,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4872,18 +4594,17 @@
         <v>8589483.654868068</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4910,16 +4631,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4944,18 +4662,15 @@
         <v>8580975.388734456</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4980,18 +4695,15 @@
         <v>8593514.759385396</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5016,18 +4728,15 @@
         <v>8578663.871869946</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5052,18 +4761,15 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5088,18 +4794,15 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5124,18 +4827,15 @@
         <v>8570763.791769946</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5160,18 +4860,15 @@
         <v>8568740.123769946</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5196,18 +4893,15 @@
         <v>8569626.532469947</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5232,18 +4926,15 @@
         <v>8568900.852269948</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5268,18 +4959,15 @@
         <v>8558561.818569947</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5304,18 +4992,15 @@
         <v>8563394.770860434</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5340,18 +5025,15 @@
         <v>8562255.287660433</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5376,18 +5058,15 @@
         <v>8556491.109160433</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5412,18 +5091,15 @@
         <v>8551269.928960433</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5448,18 +5124,15 @@
         <v>8516387.201660434</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5484,18 +5157,15 @@
         <v>8518334.303460434</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5520,18 +5190,15 @@
         <v>8518334.303460434</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5558,16 +5225,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5594,16 +5258,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5630,16 +5291,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5664,18 +5322,21 @@
         <v>8490722.764660433</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5700,18 +5361,21 @@
         <v>9366870.123560432</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5736,18 +5400,21 @@
         <v>9715577.259860432</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5772,18 +5439,21 @@
         <v>9743211.513560431</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5808,18 +5478,21 @@
         <v>9830763.311660431</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5844,18 +5517,21 @@
         <v>9830763.311660431</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5880,18 +5556,19 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5916,18 +5593,19 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5952,18 +5630,19 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5988,18 +5667,19 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6026,16 +5706,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6062,16 +5743,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6098,16 +5780,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6134,16 +5817,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6170,16 +5854,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6206,16 +5891,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6242,16 +5928,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6278,16 +5965,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6314,16 +6002,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6348,18 +6037,21 @@
         <v>4980448.947203909</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6384,18 +6076,21 @@
         <v>4974881.546103909</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6420,18 +6115,21 @@
         <v>4978187.616003908</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6456,18 +6154,21 @@
         <v>4978604.859103908</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6492,18 +6193,21 @@
         <v>4978604.859103908</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6528,18 +6232,21 @@
         <v>4977747.585003908</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6564,18 +6271,21 @@
         <v>4978718.138503908</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6600,18 +6310,21 @@
         <v>4983810.354911534</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6636,18 +6349,17 @@
         <v>4989772.129611534</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6672,18 +6384,15 @@
         <v>4987822.567311534</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6708,18 +6417,15 @@
         <v>4987822.567311534</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6744,18 +6450,15 @@
         <v>4987822.567311534</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6780,18 +6483,15 @@
         <v>4987822.567311534</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6816,18 +6516,15 @@
         <v>4985696.101711534</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6852,18 +6549,15 @@
         <v>4979880.963211534</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6888,18 +6582,15 @@
         <v>4984940.711858654</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6924,18 +6615,15 @@
         <v>4982458.117858655</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6960,18 +6648,15 @@
         <v>4975544.115758655</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6996,18 +6681,15 @@
         <v>4975545.115758655</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7032,18 +6714,15 @@
         <v>4975001.376258655</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7068,18 +6747,15 @@
         <v>4975001.376258655</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7104,18 +6780,15 @@
         <v>4960203.262958654</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7140,18 +6813,15 @@
         <v>4955805.946458654</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7178,16 +6848,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7214,16 +6881,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7250,16 +6914,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7284,18 +6945,15 @@
         <v>4960087.771397117</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7320,18 +6978,15 @@
         <v>4959017.963297117</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7356,18 +7011,15 @@
         <v>4957291.740197117</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7392,18 +7044,15 @@
         <v>4957291.740197117</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7428,18 +7077,15 @@
         <v>4955540.743097116</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7466,16 +7112,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7502,16 +7145,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7538,16 +7178,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7572,18 +7209,15 @@
         <v>4957335.479497116</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7608,18 +7242,15 @@
         <v>4957490.479497116</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7644,18 +7275,15 @@
         <v>4957485.479497116</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7680,18 +7308,15 @@
         <v>4957485.479497116</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7716,18 +7341,15 @@
         <v>4957490.479497116</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7752,18 +7374,15 @@
         <v>4957490.479497116</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7788,18 +7407,15 @@
         <v>4953183.965197116</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7824,18 +7440,15 @@
         <v>4954277.303697116</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7860,18 +7473,15 @@
         <v>4954687.951197116</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7896,18 +7506,15 @@
         <v>4954688.951197116</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7932,18 +7539,15 @@
         <v>4952204.640297116</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7968,18 +7572,15 @@
         <v>4952204.640297116</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8004,18 +7605,15 @@
         <v>4952277.490797115</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8040,18 +7638,15 @@
         <v>4952278.490797115</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8076,18 +7671,15 @@
         <v>4961712.290426238</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8112,18 +7704,19 @@
         <v>4960493.787226237</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>467</v>
+      </c>
+      <c r="J203" t="n">
+        <v>467</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8148,18 +7741,23 @@
         <v>4960492.287226237</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+        <v>465</v>
+      </c>
+      <c r="J204" t="n">
+        <v>467</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8184,18 +7782,23 @@
         <v>4960573.849526238</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+        <v>461</v>
+      </c>
+      <c r="J205" t="n">
+        <v>467</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8220,18 +7823,23 @@
         <v>4952353.524926238</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J206" t="n">
+        <v>467</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8256,18 +7864,23 @@
         <v>4952353.524926238</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+        <v>461</v>
+      </c>
+      <c r="J207" t="n">
+        <v>467</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8292,18 +7905,21 @@
         <v>4938839.342726238</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>467</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8328,18 +7944,21 @@
         <v>4938860.987747883</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>467</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8366,16 +7985,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>467</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8402,16 +8024,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>467</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8436,18 +8061,21 @@
         <v>4938627.478047883</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>467</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8472,18 +8100,21 @@
         <v>4937346.459447883</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>467</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8508,18 +8139,21 @@
         <v>4938005.962347883</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>467</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8544,18 +8178,21 @@
         <v>4937155.200547882</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>467</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8580,18 +8217,21 @@
         <v>4915611.092547882</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>467</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8616,18 +8256,21 @@
         <v>4915614.092547882</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>467</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>0.9842933618843683</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8654,16 +8297,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8688,18 +8328,15 @@
         <v>4765769.296347883</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8726,16 +8363,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8760,18 +8394,15 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8796,18 +8427,15 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8832,18 +8460,15 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8868,18 +8493,15 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8904,18 +8526,15 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8940,18 +8559,15 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8976,18 +8592,15 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9012,18 +8625,15 @@
         <v>3871235.253647883</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9048,18 +8658,15 @@
         <v>3344667.846447883</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9084,18 +8691,15 @@
         <v>3344667.846447883</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9120,18 +8724,15 @@
         <v>3344667.846447883</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9156,18 +8757,15 @@
         <v>3344667.846447883</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9192,18 +8790,15 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9230,16 +8825,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9266,16 +8858,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9302,16 +8891,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9336,18 +8922,15 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9374,16 +8957,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9408,18 +8988,15 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9444,18 +9021,15 @@
         <v>3194859.084647883</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9480,18 +9054,15 @@
         <v>3194859.084647883</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9516,18 +9087,15 @@
         <v>3194859.084647883</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9554,16 +9122,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9590,16 +9155,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9624,18 +9186,15 @@
         <v>2998107.618347883</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9660,18 +9219,15 @@
         <v>3183163.165947883</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9696,18 +9252,15 @@
         <v>3183163.165947883</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9732,18 +9285,15 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9768,18 +9318,15 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9804,18 +9351,15 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9840,18 +9384,15 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9876,18 +9417,15 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9912,18 +9450,21 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9948,18 +9489,21 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9984,18 +9528,19 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10020,18 +9565,19 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10056,18 +9602,19 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10092,18 +9639,21 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10128,18 +9678,21 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10164,18 +9717,21 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10200,18 +9756,21 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10236,18 +9795,21 @@
         <v>2861341.405847883</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10272,18 +9834,21 @@
         <v>2861341.405847883</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10308,18 +9873,21 @@
         <v>2994541.406747883</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10344,18 +9912,21 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10380,18 +9951,21 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10416,18 +9990,17 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10452,18 +10025,19 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
+        <v>459</v>
+      </c>
+      <c r="J268" t="n">
+        <v>459</v>
+      </c>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10488,18 +10062,21 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>459</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10524,18 +10101,23 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+        <v>459</v>
+      </c>
+      <c r="J270" t="n">
+        <v>459</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10560,18 +10142,21 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>459</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10596,18 +10181,21 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>459</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10632,18 +10220,21 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>459</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10668,18 +10259,21 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>459</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10704,18 +10298,21 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>459</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10740,18 +10337,21 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>459</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10776,18 +10376,21 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>459</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10812,18 +10415,21 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>459</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10848,18 +10454,23 @@
         <v>3142183.882747883</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+        <v>460</v>
+      </c>
+      <c r="J279" t="n">
+        <v>459</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10884,18 +10495,21 @@
         <v>3142443.673847883</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>459</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10920,18 +10534,21 @@
         <v>3139068.069647883</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>459</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1.016786492374728</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10956,18 +10573,15 @@
         <v>3136874.274047883</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10992,18 +10606,15 @@
         <v>3139692.211247883</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11028,18 +10639,15 @@
         <v>3137798.842847883</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11066,16 +10674,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11100,18 +10705,15 @@
         <v>3137801.842847883</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11138,16 +10740,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11174,16 +10773,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11208,18 +10804,15 @@
         <v>2975437.624447883</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11244,18 +10837,15 @@
         <v>2985188.966347883</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11280,18 +10870,15 @@
         <v>2984680.170747883</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11318,16 +10905,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11352,18 +10936,19 @@
         <v>2984681.170747883</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
+        <v>460</v>
+      </c>
+      <c r="J293" t="n">
+        <v>460</v>
+      </c>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11388,18 +10973,21 @@
         <v>2034881.170747883</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>460</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11424,18 +11012,21 @@
         <v>2034881.170747883</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>460</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11460,18 +11051,15 @@
         <v>2238082.170747883</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11496,18 +11084,15 @@
         <v>2238092.170747883</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11532,18 +11117,15 @@
         <v>2238088.570747883</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11568,18 +11150,15 @@
         <v>2238085.070747883</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11604,18 +11183,15 @@
         <v>2252646.665547883</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11640,18 +11216,15 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11678,16 +11251,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>1</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11714,16 +11284,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>1</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11750,16 +11317,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>1</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11784,18 +11348,15 @@
         <v>-149199.5935521168</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11820,18 +11381,15 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11858,16 +11416,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11892,18 +11447,15 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11928,18 +11480,15 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11964,18 +11513,15 @@
         <v>-1492757.068052332</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12002,16 +11548,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12038,16 +11581,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12074,16 +11614,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12110,16 +11647,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12146,16 +11680,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12182,16 +11713,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12218,16 +11746,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12254,16 +11779,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12288,18 +11810,19 @@
         <v>-1650171.453052333</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
+        <v>458</v>
+      </c>
+      <c r="J319" t="n">
+        <v>458</v>
+      </c>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12324,18 +11847,23 @@
         <v>-1647991.453052333</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+        <v>458</v>
+      </c>
+      <c r="J320" t="n">
+        <v>458</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12362,16 +11890,19 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>458</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12396,18 +11927,19 @@
         <v>-1648293.900552333</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
+        <v>458</v>
+      </c>
+      <c r="J322" t="n">
+        <v>458</v>
+      </c>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12432,20 +11964,25 @@
         <v>-1648293.900552333</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+        <v>458</v>
+      </c>
+      <c r="J323" t="n">
+        <v>458</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest DAD.xlsx
+++ b/BackTest/2019-10-30 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>499261.5773317213</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>502600.1574317212</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>526030.4875317212</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>503648.7203317212</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>494096.3924317213</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>531418.9477317212</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>516033.9119317212</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>516700.0881317212</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>503568.4458317212</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>508515.2754367102</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1177,11 +1177,17 @@
         <v>338937.3841932322</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>453</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>322702.5767932322</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>449</v>
@@ -1218,7 +1224,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1249,7 +1255,7 @@
         <v>346306.8353932322</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>440</v>
@@ -1288,7 +1294,7 @@
         <v>337057.0143932322</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>454</v>
@@ -1327,9 +1333,11 @@
         <v>380232.3211230562</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>452</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1364,9 +1372,11 @@
         <v>390309.1049051622</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>456</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1401,7 +1411,7 @@
         <v>403112.9009882432</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>460</v>
@@ -1440,7 +1450,7 @@
         <v>396472.2903882432</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>463</v>
@@ -1479,7 +1489,7 @@
         <v>386784.7400314112</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>462</v>
@@ -1518,7 +1528,7 @@
         <v>386738.3281314112</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>460</v>
@@ -1557,7 +1567,7 @@
         <v>388715.1761314112</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>457</v>
@@ -1596,7 +1606,7 @@
         <v>388494.9607314112</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>458</v>
@@ -1635,7 +1645,7 @@
         <v>391752.3034314112</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>457</v>
@@ -1674,7 +1684,7 @@
         <v>391299.7853314112</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>459</v>
@@ -1713,7 +1723,7 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>457</v>
@@ -1752,7 +1762,7 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>452</v>
@@ -1791,7 +1801,7 @@
         <v>380460.6725314112</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>452</v>
@@ -1830,7 +1840,7 @@
         <v>380460.6725314112</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>454</v>
@@ -1869,7 +1879,7 @@
         <v>381919.6958314112</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>454</v>
@@ -1908,7 +1918,7 @@
         <v>380878.8250314112</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>455</v>
@@ -1947,7 +1957,7 @@
         <v>390295.3606314112</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>454</v>
@@ -1986,7 +1996,7 @@
         <v>392803.0207314112</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>458</v>
@@ -2025,9 +2035,11 @@
         <v>390465.5971314112</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>460</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2062,9 +2074,11 @@
         <v>402954.4705314112</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>453</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2099,9 +2113,11 @@
         <v>402958.0030314112</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>454</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2136,9 +2152,11 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>458</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2173,9 +2191,11 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>457</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2210,9 +2230,11 @@
         <v>393341.4250314111</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>457</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2247,9 +2269,11 @@
         <v>393396.4516314111</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>451</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2284,9 +2308,11 @@
         <v>391158.3804314111</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>452</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2321,9 +2347,11 @@
         <v>364563.5319314111</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>451</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2358,7 +2386,7 @@
         <v>368019.738431411</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>450</v>
@@ -2397,7 +2425,7 @@
         <v>362208.215331411</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>455</v>
@@ -2436,7 +2464,7 @@
         <v>367426.6970314111</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>452</v>
@@ -2475,7 +2503,7 @@
         <v>367381.6970314111</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>462</v>
@@ -2514,9 +2542,11 @@
         <v>359859.3862314111</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>459</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2551,9 +2581,11 @@
         <v>360353.3871375241</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>454</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2588,9 +2620,11 @@
         <v>370857.8639024471</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>458</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2625,9 +2659,11 @@
         <v>370774.7400024471</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>462</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2662,7 +2698,7 @@
         <v>371794.0101024471</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>457</v>
@@ -2701,7 +2737,7 @@
         <v>374290.9296024471</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>458</v>
@@ -2740,7 +2776,7 @@
         <v>373755.8678024471</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>460</v>
@@ -2779,9 +2815,11 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>458</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2816,9 +2854,11 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>461</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2853,7 +2893,7 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>461</v>
@@ -2892,7 +2932,7 @@
         <v>375344.4547024471</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>461</v>
@@ -2931,7 +2971,7 @@
         <v>370432.4382024471</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>459</v>
@@ -2970,7 +3010,7 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>458</v>
@@ -3009,7 +3049,7 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>457</v>
@@ -3048,7 +3088,7 @@
         <v>365910.8347024471</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>457</v>
@@ -3087,7 +3127,7 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>459</v>
@@ -3126,7 +3166,7 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>457</v>
@@ -3165,7 +3205,7 @@
         <v>362262.9360170441</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>457</v>
@@ -3204,9 +3244,11 @@
         <v>356180.820317044</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>456</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3241,9 +3283,11 @@
         <v>349885.032417044</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>455</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3278,9 +3322,11 @@
         <v>1158846.639817044</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>453</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3315,7 +3361,7 @@
         <v>3942873.184817044</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>454</v>
@@ -3354,7 +3400,7 @@
         <v>5864063.074517044</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>455</v>
@@ -3393,7 +3439,7 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>456</v>
@@ -3432,7 +3478,7 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>455</v>
@@ -3471,7 +3517,7 @@
         <v>6587542.353598008</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>455</v>
@@ -3510,7 +3556,7 @@
         <v>6587542.353598008</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>456</v>
@@ -3549,7 +3595,7 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>456</v>
@@ -3588,7 +3634,7 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>457</v>
@@ -3627,7 +3673,7 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>457</v>
@@ -3666,7 +3712,7 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>457</v>
@@ -3705,7 +3751,7 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>457</v>
@@ -3744,7 +3790,7 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>457</v>
@@ -3783,7 +3829,7 @@
         <v>8585102.910907615</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>457</v>
@@ -3822,7 +3868,7 @@
         <v>6504906.122007615</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>459</v>
@@ -3861,7 +3907,7 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>458</v>
@@ -3900,7 +3946,7 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>459</v>
@@ -3939,7 +3985,7 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>459</v>
@@ -3978,7 +4024,7 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>460</v>
@@ -4017,7 +4063,7 @@
         <v>8409714.210307615</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>460</v>
@@ -4056,7 +4102,7 @@
         <v>8420285.146942692</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>461</v>
@@ -4095,7 +4141,7 @@
         <v>8435452.932442691</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>462</v>
@@ -4134,7 +4180,7 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>466</v>
@@ -4173,7 +4219,7 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>474</v>
@@ -4212,7 +4258,7 @@
         <v>8462005.250742693</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>474</v>
@@ -4251,7 +4297,7 @@
         <v>8459748.593442693</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>470</v>
@@ -4290,7 +4336,7 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>467</v>
@@ -4329,7 +4375,7 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>468</v>
@@ -4368,11 +4414,9 @@
         <v>8461208.379705381</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4444,11 +4488,9 @@
         <v>8488137.066568067</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4594,16 +4636,18 @@
         <v>8589483.654868068</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
       <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -4633,7 +4677,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4662,11 +4710,15 @@
         <v>8580975.388734456</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4695,11 +4747,15 @@
         <v>8593514.759385396</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4728,11 +4784,15 @@
         <v>8578663.871869946</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4761,11 +4821,15 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4794,11 +4858,15 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4827,11 +4895,15 @@
         <v>8570763.791769946</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4860,11 +4932,15 @@
         <v>8568740.123769946</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4893,11 +4969,15 @@
         <v>8569626.532469947</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4926,11 +5006,15 @@
         <v>8568900.852269948</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4959,11 +5043,15 @@
         <v>8558561.818569947</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4992,11 +5080,15 @@
         <v>8563394.770860434</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5025,11 +5117,15 @@
         <v>8562255.287660433</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5058,11 +5154,15 @@
         <v>8556491.109160433</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5091,11 +5191,15 @@
         <v>8551269.928960433</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5124,11 +5228,15 @@
         <v>8516387.201660434</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5157,11 +5265,15 @@
         <v>8518334.303460434</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5190,11 +5302,15 @@
         <v>8518334.303460434</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5227,7 +5343,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5260,7 +5380,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5293,7 +5417,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5322,15 +5450,13 @@
         <v>8490722.764660433</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -5361,11 +5487,9 @@
         <v>9366870.123560432</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5400,11 +5524,9 @@
         <v>9715577.259860432</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5439,11 +5561,9 @@
         <v>9743211.513560431</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5478,11 +5598,9 @@
         <v>9830763.311660431</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5519,18 +5637,14 @@
       <c r="H140" t="n">
         <v>2</v>
       </c>
-      <c r="I140" t="n">
-        <v>468</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -5556,15 +5670,11 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5593,15 +5703,11 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5630,15 +5736,11 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5667,15 +5769,11 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5704,15 +5802,11 @@
         <v>4977436.294760432</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5741,15 +5835,11 @@
         <v>4974921.742960433</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5782,11 +5872,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5815,15 +5901,11 @@
         <v>4990464.910460432</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5856,11 +5938,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5893,11 +5971,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5930,11 +6004,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5967,11 +6037,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6004,11 +6070,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6037,17 +6099,11 @@
         <v>4980448.947203909</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6076,17 +6132,11 @@
         <v>4974881.546103909</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6115,17 +6165,11 @@
         <v>4978187.616003908</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6154,17 +6198,11 @@
         <v>4978604.859103908</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6193,17 +6231,11 @@
         <v>4978604.859103908</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6232,17 +6264,11 @@
         <v>4977747.585003908</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6271,17 +6297,11 @@
         <v>4978718.138503908</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6310,17 +6330,11 @@
         <v>4983810.354911534</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6349,16 +6363,14 @@
         <v>4989772.129611534</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
       <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
@@ -6384,7 +6396,7 @@
         <v>4987822.567311534</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6417,7 +6429,7 @@
         <v>4987822.567311534</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6450,7 +6462,7 @@
         <v>4987822.567311534</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6483,7 +6495,7 @@
         <v>4987822.567311534</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6516,7 +6528,7 @@
         <v>4985696.101711534</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6549,7 +6561,7 @@
         <v>4979880.963211534</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6582,7 +6594,7 @@
         <v>4984940.711858654</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6615,7 +6627,7 @@
         <v>4982458.117858655</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6648,7 +6660,7 @@
         <v>4975544.115758655</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6681,7 +6693,7 @@
         <v>4975545.115758655</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6714,7 +6726,7 @@
         <v>4975001.376258655</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6747,7 +6759,7 @@
         <v>4975001.376258655</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6780,7 +6792,7 @@
         <v>4960203.262958654</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6813,7 +6825,7 @@
         <v>4955805.946458654</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6945,7 +6957,7 @@
         <v>4960087.771397117</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6978,7 +6990,7 @@
         <v>4959017.963297117</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7011,7 +7023,7 @@
         <v>4957291.740197117</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7044,7 +7056,7 @@
         <v>4957291.740197117</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7077,7 +7089,7 @@
         <v>4955540.743097116</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7209,7 +7221,7 @@
         <v>4957335.479497116</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7242,7 +7254,7 @@
         <v>4957490.479497116</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7275,7 +7287,7 @@
         <v>4957485.479497116</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7308,7 +7320,7 @@
         <v>4957485.479497116</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7341,7 +7353,7 @@
         <v>4957490.479497116</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7374,7 +7386,7 @@
         <v>4957490.479497116</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7407,7 +7419,7 @@
         <v>4953183.965197116</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7440,7 +7452,7 @@
         <v>4954277.303697116</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7473,7 +7485,7 @@
         <v>4954687.951197116</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7506,7 +7518,7 @@
         <v>4954688.951197116</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7539,7 +7551,7 @@
         <v>4952204.640297116</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7572,7 +7584,7 @@
         <v>4952204.640297116</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7605,7 +7617,7 @@
         <v>4952277.490797115</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7638,7 +7650,7 @@
         <v>4952278.490797115</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7671,7 +7683,7 @@
         <v>4961712.290426238</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7704,14 +7716,10 @@
         <v>4960493.787226237</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>467</v>
-      </c>
-      <c r="J203" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
@@ -7741,19 +7749,11 @@
         <v>4960492.287226237</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>465</v>
-      </c>
-      <c r="J204" t="n">
-        <v>467</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7782,19 +7782,11 @@
         <v>4960573.849526238</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>461</v>
-      </c>
-      <c r="J205" t="n">
-        <v>467</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7823,19 +7815,11 @@
         <v>4952353.524926238</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>462</v>
-      </c>
-      <c r="J206" t="n">
-        <v>467</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7864,19 +7848,11 @@
         <v>4952353.524926238</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>461</v>
-      </c>
-      <c r="J207" t="n">
-        <v>467</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7905,17 +7881,11 @@
         <v>4938839.342726238</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>467</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7944,17 +7914,11 @@
         <v>4938860.987747883</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>467</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7986,14 +7950,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>467</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8025,14 +7983,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>467</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8061,17 +8013,11 @@
         <v>4938627.478047883</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>467</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8100,17 +8046,11 @@
         <v>4937346.459447883</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>467</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8139,17 +8079,11 @@
         <v>4938005.962347883</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>467</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8178,17 +8112,11 @@
         <v>4937155.200547882</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>467</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8217,17 +8145,11 @@
         <v>4915611.092547882</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>467</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8256,19 +8178,13 @@
         <v>4915614.092547882</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>467</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
-        <v>0.9842933618843683</v>
+        <v>1</v>
       </c>
       <c r="M217" t="inlineStr"/>
     </row>
@@ -8328,7 +8244,7 @@
         <v>4765769.296347883</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8394,7 +8310,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8427,7 +8343,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8460,7 +8376,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8493,7 +8409,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8526,7 +8442,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8559,7 +8475,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8592,7 +8508,7 @@
         <v>4470269.268247883</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8625,7 +8541,7 @@
         <v>3871235.253647883</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8658,7 +8574,7 @@
         <v>3344667.846447883</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8691,7 +8607,7 @@
         <v>3344667.846447883</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8724,7 +8640,7 @@
         <v>3344667.846447883</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8757,7 +8673,7 @@
         <v>3344667.846447883</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8790,7 +8706,7 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8922,7 +8838,7 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8955,10 +8871,14 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>457</v>
+      </c>
+      <c r="J238" t="n">
+        <v>457</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
@@ -8988,11 +8908,19 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>457</v>
+      </c>
+      <c r="J239" t="n">
+        <v>457</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9021,11 +8949,19 @@
         <v>3194859.084647883</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>457</v>
+      </c>
+      <c r="J240" t="n">
+        <v>457</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9054,10 +8990,14 @@
         <v>3194859.084647883</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>458</v>
+      </c>
+      <c r="J241" t="n">
+        <v>458</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
@@ -9087,11 +9027,17 @@
         <v>3194859.084647883</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>458</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9120,11 +9066,19 @@
         <v>3268341.618147883</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>458</v>
+      </c>
+      <c r="J243" t="n">
+        <v>458</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9153,11 +9107,19 @@
         <v>2998107.618347883</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>459</v>
+      </c>
+      <c r="J244" t="n">
+        <v>458</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9186,11 +9148,19 @@
         <v>2998107.618347883</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>458</v>
+      </c>
+      <c r="J245" t="n">
+        <v>458</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9219,11 +9189,19 @@
         <v>3183163.165947883</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>458</v>
+      </c>
+      <c r="J246" t="n">
+        <v>458</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9252,11 +9230,19 @@
         <v>3183163.165947883</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>459</v>
+      </c>
+      <c r="J247" t="n">
+        <v>458</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9285,11 +9271,19 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>459</v>
+      </c>
+      <c r="J248" t="n">
+        <v>458</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9318,11 +9312,19 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>457</v>
+      </c>
+      <c r="J249" t="n">
+        <v>458</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9351,11 +9353,19 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>457</v>
+      </c>
+      <c r="J250" t="n">
+        <v>458</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9384,11 +9394,19 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>457</v>
+      </c>
+      <c r="J251" t="n">
+        <v>458</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9417,11 +9435,19 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>457</v>
+      </c>
+      <c r="J252" t="n">
+        <v>458</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9450,15 +9476,17 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>458</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>458</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L253" t="n">
@@ -9489,12 +9517,14 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>458</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>458</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9528,10 +9558,14 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>458</v>
+      </c>
+      <c r="J255" t="n">
+        <v>458</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9565,10 +9599,14 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>458</v>
+      </c>
+      <c r="J256" t="n">
+        <v>458</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9602,10 +9640,14 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>457</v>
+      </c>
+      <c r="J257" t="n">
+        <v>458</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9639,12 +9681,14 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>457</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>458</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9678,12 +9722,14 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>457</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>458</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9717,12 +9763,14 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>458</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>458</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9756,12 +9804,14 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>458</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>458</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9795,12 +9845,14 @@
         <v>2861341.405847883</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>458</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>458</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9834,12 +9886,14 @@
         <v>2861341.405847883</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>457</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>458</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9873,12 +9927,14 @@
         <v>2994541.406747883</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>457</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>458</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9912,12 +9968,14 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>458</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>458</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9951,12 +10009,14 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>459</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>458</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9990,16 +10050,22 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>459</v>
+      </c>
+      <c r="J267" t="n">
+        <v>458</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L267" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
       <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
@@ -10025,15 +10091,19 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>459</v>
       </c>
       <c r="J268" t="n">
-        <v>459</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
+        <v>458</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10062,15 +10132,17 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>459</v>
+      </c>
       <c r="J269" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L269" t="n">
@@ -10101,17 +10173,17 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>459</v>
       </c>
       <c r="J270" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -10142,11 +10214,13 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>459</v>
+      </c>
       <c r="J271" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10181,11 +10255,13 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>459</v>
+      </c>
       <c r="J272" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10220,11 +10296,13 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>459</v>
+      </c>
       <c r="J273" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10259,11 +10337,13 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>459</v>
+      </c>
       <c r="J274" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10298,11 +10378,13 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>459</v>
+      </c>
       <c r="J275" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10337,11 +10419,13 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>459</v>
+      </c>
       <c r="J276" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10376,11 +10460,13 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>460</v>
+      </c>
       <c r="J277" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10415,11 +10501,13 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>460</v>
+      </c>
       <c r="J278" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10454,13 +10542,13 @@
         <v>3142183.882747883</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>460</v>
       </c>
       <c r="J279" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10495,11 +10583,13 @@
         <v>3142443.673847883</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>469</v>
+      </c>
       <c r="J280" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10534,19 +10624,21 @@
         <v>3139068.069647883</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>470</v>
+      </c>
       <c r="J281" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L281" t="n">
-        <v>1.016786492374728</v>
+        <v>1</v>
       </c>
       <c r="M281" t="inlineStr"/>
     </row>
@@ -10573,11 +10665,19 @@
         <v>3136874.274047883</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>469</v>
+      </c>
+      <c r="J282" t="n">
+        <v>458</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10606,11 +10706,19 @@
         <v>3139692.211247883</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>457</v>
+      </c>
+      <c r="J283" t="n">
+        <v>458</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10639,11 +10747,19 @@
         <v>3137798.842847883</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>462</v>
+      </c>
+      <c r="J284" t="n">
+        <v>458</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10672,11 +10788,19 @@
         <v>3137800.842847883</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>458</v>
+      </c>
+      <c r="J285" t="n">
+        <v>458</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10705,11 +10829,19 @@
         <v>3137801.842847883</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>459</v>
+      </c>
+      <c r="J286" t="n">
+        <v>458</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10738,11 +10870,19 @@
         <v>3069491.222647883</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>464</v>
+      </c>
+      <c r="J287" t="n">
+        <v>458</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10771,11 +10911,19 @@
         <v>3018948.758047883</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>463</v>
+      </c>
+      <c r="J288" t="n">
+        <v>458</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10804,11 +10952,19 @@
         <v>2975437.624447883</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>462</v>
+      </c>
+      <c r="J289" t="n">
+        <v>458</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10837,11 +10993,19 @@
         <v>2985188.966347883</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>461</v>
+      </c>
+      <c r="J290" t="n">
+        <v>458</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10870,11 +11034,19 @@
         <v>2984680.170747883</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>466</v>
+      </c>
+      <c r="J291" t="n">
+        <v>458</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10903,11 +11075,19 @@
         <v>2984680.170747883</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>460</v>
+      </c>
+      <c r="J292" t="n">
+        <v>458</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10936,15 +11116,19 @@
         <v>2984681.170747883</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>460</v>
       </c>
       <c r="J293" t="n">
-        <v>460</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
+        <v>458</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10973,15 +11157,17 @@
         <v>2034881.170747883</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>463</v>
+      </c>
       <c r="J294" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L294" t="n">
@@ -11012,15 +11198,17 @@
         <v>2034881.170747883</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>462</v>
+      </c>
       <c r="J295" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L295" t="n">
@@ -11051,11 +11239,19 @@
         <v>2238082.170747883</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>462</v>
+      </c>
+      <c r="J296" t="n">
+        <v>458</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11084,11 +11280,19 @@
         <v>2238092.170747883</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>463</v>
+      </c>
+      <c r="J297" t="n">
+        <v>458</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11117,11 +11321,19 @@
         <v>2238088.570747883</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>464</v>
+      </c>
+      <c r="J298" t="n">
+        <v>458</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11150,11 +11362,19 @@
         <v>2238085.070747883</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>461</v>
+      </c>
+      <c r="J299" t="n">
+        <v>458</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11183,11 +11403,19 @@
         <v>2252646.665547883</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>460</v>
+      </c>
+      <c r="J300" t="n">
+        <v>458</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11216,11 +11444,19 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>463</v>
+      </c>
+      <c r="J301" t="n">
+        <v>458</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11249,11 +11485,19 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>465</v>
+      </c>
+      <c r="J302" t="n">
+        <v>458</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11285,8 +11529,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>458</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11315,11 +11565,19 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>465</v>
+      </c>
+      <c r="J304" t="n">
+        <v>458</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11348,11 +11606,19 @@
         <v>-149199.5935521168</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>465</v>
+      </c>
+      <c r="J305" t="n">
+        <v>458</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11381,11 +11647,19 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>464</v>
+      </c>
+      <c r="J306" t="n">
+        <v>458</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11414,11 +11688,19 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>463</v>
+      </c>
+      <c r="J307" t="n">
+        <v>458</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11447,11 +11729,17 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>458</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11480,11 +11768,17 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>458</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11513,11 +11807,17 @@
         <v>-1492757.068052332</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>458</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11549,8 +11849,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>458</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11582,8 +11888,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>458</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11615,8 +11927,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>458</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11648,8 +11966,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>458</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11678,11 +12002,19 @@
         <v>-1631140.075652333</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>458</v>
+      </c>
+      <c r="J315" t="n">
+        <v>458</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11711,11 +12043,19 @@
         <v>-1631135.590952333</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>459</v>
+      </c>
+      <c r="J316" t="n">
+        <v>458</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11744,11 +12084,19 @@
         <v>-1631135.590952333</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>462</v>
+      </c>
+      <c r="J317" t="n">
+        <v>458</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11777,11 +12125,19 @@
         <v>-1650171.453052333</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>462</v>
+      </c>
+      <c r="J318" t="n">
+        <v>458</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11810,7 +12166,7 @@
         <v>-1650171.453052333</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>458</v>
@@ -11818,7 +12174,11 @@
       <c r="J319" t="n">
         <v>458</v>
       </c>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11847,7 +12207,7 @@
         <v>-1647991.453052333</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>458</v>
@@ -11857,7 +12217,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L320" t="n">
@@ -11888,15 +12248,17 @@
         <v>-1648293.900552333</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>459</v>
+      </c>
       <c r="J321" t="n">
         <v>458</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L321" t="n">
@@ -11927,7 +12289,7 @@
         <v>-1648293.900552333</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>458</v>
@@ -11935,7 +12297,11 @@
       <c r="J322" t="n">
         <v>458</v>
       </c>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11964,7 +12330,7 @@
         <v>-1648293.900552333</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>458</v>
@@ -11974,7 +12340,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L323" t="n">
@@ -11983,6 +12349,6 @@
       <c r="M323" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest DAD.xlsx
+++ b/BackTest/2019-10-30 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,11 +880,17 @@
         <v>516700.0881317212</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>455</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +919,17 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>463</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +958,17 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>460</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +997,17 @@
         <v>503568.4458317212</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>460</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1036,17 @@
         <v>508515.2754367102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>459</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1079,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1116,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1153,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1190,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1185,7 +1231,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1450,11 +1496,9 @@
         <v>396472.2903882432</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1489,11 +1533,9 @@
         <v>386784.7400314112</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1528,11 +1570,9 @@
         <v>386738.3281314112</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1567,11 +1607,9 @@
         <v>388715.1761314112</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1606,11 +1644,9 @@
         <v>388494.9607314112</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -2698,11 +2734,9 @@
         <v>371794.0101024471</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2737,11 +2771,9 @@
         <v>374290.9296024471</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2776,11 +2808,9 @@
         <v>373755.8678024471</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2815,11 +2845,9 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2854,11 +2882,9 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2893,11 +2919,9 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2932,11 +2956,9 @@
         <v>375344.4547024471</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3010,11 +3032,9 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3088,11 +3108,9 @@
         <v>365910.8347024471</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3400,11 +3418,9 @@
         <v>5864063.074517044</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3439,11 +3455,9 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3478,11 +3492,9 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3517,11 +3529,9 @@
         <v>6587542.353598008</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3556,11 +3566,9 @@
         <v>6587542.353598008</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3595,11 +3603,9 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3634,11 +3640,9 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3673,11 +3677,9 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3712,20 +3714,16 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>457</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3751,17 +3749,11 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>457</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3790,17 +3782,11 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>457</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3829,17 +3815,11 @@
         <v>8585102.910907615</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>457</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3868,17 +3848,11 @@
         <v>6504906.122007615</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>459</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3907,17 +3881,11 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>458</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3946,17 +3914,11 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3985,17 +3947,11 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4024,17 +3980,11 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4063,17 +4013,11 @@
         <v>8409714.210307615</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4102,17 +4046,11 @@
         <v>8420285.146942692</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4141,17 +4079,11 @@
         <v>8435452.932442691</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4180,17 +4112,11 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>466</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4219,17 +4145,11 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>474</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4258,17 +4178,11 @@
         <v>8462005.250742693</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>474</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4297,17 +4211,11 @@
         <v>8459748.593442693</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>470</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4336,17 +4244,11 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>467</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4375,17 +4277,11 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>468</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4414,15 +4310,11 @@
         <v>8461208.379705381</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4451,15 +4343,11 @@
         <v>8468172.037305381</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4488,15 +4376,11 @@
         <v>8488137.066568067</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4525,15 +4409,11 @@
         <v>8518748.788117331</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4562,15 +4442,11 @@
         <v>8589479.591468068</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4599,15 +4475,11 @@
         <v>8585808.804368068</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4636,15 +4508,11 @@
         <v>8589483.654868068</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4673,15 +4541,11 @@
         <v>8584081.982168067</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4710,15 +4574,11 @@
         <v>8580975.388734456</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4747,15 +4607,11 @@
         <v>8593514.759385396</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4784,15 +4640,11 @@
         <v>8578663.871869946</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4821,15 +4673,11 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4858,15 +4706,11 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4895,15 +4739,11 @@
         <v>8570763.791769946</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4932,15 +4772,11 @@
         <v>8568740.123769946</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4969,15 +4805,11 @@
         <v>8569626.532469947</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5006,15 +4838,11 @@
         <v>8568900.852269948</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5043,15 +4871,11 @@
         <v>8558561.818569947</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5080,15 +4904,11 @@
         <v>8563394.770860434</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5117,15 +4937,11 @@
         <v>8562255.287660433</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5154,15 +4970,11 @@
         <v>8556491.109160433</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5191,15 +5003,11 @@
         <v>8551269.928960433</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5228,15 +5036,11 @@
         <v>8516387.201660434</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5265,15 +5069,11 @@
         <v>8518334.303460434</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5306,11 +5106,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5343,11 +5139,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5380,11 +5172,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5417,11 +5205,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5454,11 +5238,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5491,11 +5271,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5528,11 +5304,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5565,11 +5337,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5602,11 +5370,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5639,12 +5403,10 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
       <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -5769,7 +5531,7 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5802,7 +5564,7 @@
         <v>4977436.294760432</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5835,7 +5597,7 @@
         <v>4974921.742960433</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5901,7 +5663,7 @@
         <v>4990464.910460432</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -8871,14 +8633,10 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>457</v>
-      </c>
-      <c r="J238" t="n">
-        <v>457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
@@ -8908,19 +8666,11 @@
         <v>2474859.063247883</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>457</v>
-      </c>
-      <c r="J239" t="n">
-        <v>457</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8949,19 +8699,11 @@
         <v>3194859.084647883</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>457</v>
-      </c>
-      <c r="J240" t="n">
-        <v>457</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8990,14 +8732,10 @@
         <v>3194859.084647883</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>458</v>
-      </c>
-      <c r="J241" t="n">
-        <v>458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
@@ -9030,14 +8768,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>458</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9066,19 +8798,11 @@
         <v>3268341.618147883</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>458</v>
-      </c>
-      <c r="J243" t="n">
-        <v>458</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9107,19 +8831,11 @@
         <v>2998107.618347883</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>459</v>
-      </c>
-      <c r="J244" t="n">
-        <v>458</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9148,19 +8864,11 @@
         <v>2998107.618347883</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>458</v>
-      </c>
-      <c r="J245" t="n">
-        <v>458</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9189,19 +8897,11 @@
         <v>3183163.165947883</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>458</v>
-      </c>
-      <c r="J246" t="n">
-        <v>458</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9230,19 +8930,11 @@
         <v>3183163.165947883</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>459</v>
-      </c>
-      <c r="J247" t="n">
-        <v>458</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9271,19 +8963,11 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>459</v>
-      </c>
-      <c r="J248" t="n">
-        <v>458</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9312,19 +8996,11 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>457</v>
-      </c>
-      <c r="J249" t="n">
-        <v>458</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9353,19 +9029,11 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>457</v>
-      </c>
-      <c r="J250" t="n">
-        <v>458</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9394,19 +9062,11 @@
         <v>2987878.180847883</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>457</v>
-      </c>
-      <c r="J251" t="n">
-        <v>458</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9435,19 +9095,11 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>457</v>
-      </c>
-      <c r="J252" t="n">
-        <v>458</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9476,19 +9128,11 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>458</v>
-      </c>
-      <c r="J253" t="n">
-        <v>458</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9517,19 +9161,11 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>458</v>
-      </c>
-      <c r="J254" t="n">
-        <v>458</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9558,19 +9194,11 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>458</v>
-      </c>
-      <c r="J255" t="n">
-        <v>458</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9599,19 +9227,11 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>458</v>
-      </c>
-      <c r="J256" t="n">
-        <v>458</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9640,19 +9260,11 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>457</v>
-      </c>
-      <c r="J257" t="n">
-        <v>458</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9681,19 +9293,11 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>457</v>
-      </c>
-      <c r="J258" t="n">
-        <v>458</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9722,19 +9326,11 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>457</v>
-      </c>
-      <c r="J259" t="n">
-        <v>458</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9763,19 +9359,11 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>458</v>
-      </c>
-      <c r="J260" t="n">
-        <v>458</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9804,19 +9392,11 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>458</v>
-      </c>
-      <c r="J261" t="n">
-        <v>458</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9845,19 +9425,11 @@
         <v>2861341.405847883</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>458</v>
-      </c>
-      <c r="J262" t="n">
-        <v>458</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9886,19 +9458,11 @@
         <v>2861341.405847883</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>457</v>
-      </c>
-      <c r="J263" t="n">
-        <v>458</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9927,19 +9491,11 @@
         <v>2994541.406747883</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>457</v>
-      </c>
-      <c r="J264" t="n">
-        <v>458</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9968,19 +9524,11 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>458</v>
-      </c>
-      <c r="J265" t="n">
-        <v>458</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10009,19 +9557,11 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>459</v>
-      </c>
-      <c r="J266" t="n">
-        <v>458</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10050,19 +9590,11 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>459</v>
-      </c>
-      <c r="J267" t="n">
-        <v>458</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10091,19 +9623,11 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>459</v>
-      </c>
-      <c r="J268" t="n">
-        <v>458</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10132,19 +9656,11 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>459</v>
-      </c>
-      <c r="J269" t="n">
-        <v>458</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10173,19 +9689,11 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>459</v>
-      </c>
-      <c r="J270" t="n">
-        <v>458</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10214,19 +9722,11 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>459</v>
-      </c>
-      <c r="J271" t="n">
-        <v>458</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10255,19 +9755,11 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>459</v>
-      </c>
-      <c r="J272" t="n">
-        <v>458</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10296,19 +9788,11 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>459</v>
-      </c>
-      <c r="J273" t="n">
-        <v>458</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10337,19 +9821,11 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>459</v>
-      </c>
-      <c r="J274" t="n">
-        <v>458</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10378,19 +9854,11 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>459</v>
-      </c>
-      <c r="J275" t="n">
-        <v>458</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10419,19 +9887,11 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>459</v>
-      </c>
-      <c r="J276" t="n">
-        <v>458</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10460,19 +9920,11 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>460</v>
-      </c>
-      <c r="J277" t="n">
-        <v>458</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10501,19 +9953,11 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>460</v>
-      </c>
-      <c r="J278" t="n">
-        <v>458</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10542,19 +9986,11 @@
         <v>3142183.882747883</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>460</v>
-      </c>
-      <c r="J279" t="n">
-        <v>458</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10583,19 +10019,11 @@
         <v>3142443.673847883</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>469</v>
-      </c>
-      <c r="J280" t="n">
-        <v>458</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10624,19 +10052,11 @@
         <v>3139068.069647883</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>470</v>
-      </c>
-      <c r="J281" t="n">
-        <v>458</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10665,19 +10085,11 @@
         <v>3136874.274047883</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>469</v>
-      </c>
-      <c r="J282" t="n">
-        <v>458</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10706,19 +10118,11 @@
         <v>3139692.211247883</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>457</v>
-      </c>
-      <c r="J283" t="n">
-        <v>458</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10747,19 +10151,11 @@
         <v>3137798.842847883</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>462</v>
-      </c>
-      <c r="J284" t="n">
-        <v>458</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10788,19 +10184,11 @@
         <v>3137800.842847883</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>458</v>
-      </c>
-      <c r="J285" t="n">
-        <v>458</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10829,19 +10217,11 @@
         <v>3137801.842847883</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>459</v>
-      </c>
-      <c r="J286" t="n">
-        <v>458</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10870,19 +10250,11 @@
         <v>3069491.222647883</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>464</v>
-      </c>
-      <c r="J287" t="n">
-        <v>458</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10911,19 +10283,11 @@
         <v>3018948.758047883</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>463</v>
-      </c>
-      <c r="J288" t="n">
-        <v>458</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10952,19 +10316,11 @@
         <v>2975437.624447883</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>462</v>
-      </c>
-      <c r="J289" t="n">
-        <v>458</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10993,19 +10349,11 @@
         <v>2985188.966347883</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>461</v>
-      </c>
-      <c r="J290" t="n">
-        <v>458</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11034,19 +10382,11 @@
         <v>2984680.170747883</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>466</v>
-      </c>
-      <c r="J291" t="n">
-        <v>458</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11075,19 +10415,11 @@
         <v>2984680.170747883</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>460</v>
-      </c>
-      <c r="J292" t="n">
-        <v>458</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11116,19 +10448,11 @@
         <v>2984681.170747883</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>460</v>
-      </c>
-      <c r="J293" t="n">
-        <v>458</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11157,19 +10481,11 @@
         <v>2034881.170747883</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>463</v>
-      </c>
-      <c r="J294" t="n">
-        <v>458</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11198,19 +10514,11 @@
         <v>2034881.170747883</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>462</v>
-      </c>
-      <c r="J295" t="n">
-        <v>458</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11239,19 +10547,11 @@
         <v>2238082.170747883</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>462</v>
-      </c>
-      <c r="J296" t="n">
-        <v>458</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11280,19 +10580,11 @@
         <v>2238092.170747883</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>463</v>
-      </c>
-      <c r="J297" t="n">
-        <v>458</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11321,19 +10613,11 @@
         <v>2238088.570747883</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>464</v>
-      </c>
-      <c r="J298" t="n">
-        <v>458</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11362,19 +10646,11 @@
         <v>2238085.070747883</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>461</v>
-      </c>
-      <c r="J299" t="n">
-        <v>458</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11403,19 +10679,11 @@
         <v>2252646.665547883</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>460</v>
-      </c>
-      <c r="J300" t="n">
-        <v>458</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11444,19 +10712,11 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>463</v>
-      </c>
-      <c r="J301" t="n">
-        <v>458</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11485,19 +10745,11 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>465</v>
-      </c>
-      <c r="J302" t="n">
-        <v>458</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11526,17 +10778,11 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>458</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11565,19 +10811,11 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>465</v>
-      </c>
-      <c r="J304" t="n">
-        <v>458</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11606,19 +10844,11 @@
         <v>-149199.5935521168</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>465</v>
-      </c>
-      <c r="J305" t="n">
-        <v>458</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11647,19 +10877,11 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>464</v>
-      </c>
-      <c r="J306" t="n">
-        <v>458</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11688,19 +10910,11 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>463</v>
-      </c>
-      <c r="J307" t="n">
-        <v>458</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11732,14 +10946,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>458</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11771,14 +10979,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>458</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11807,17 +11009,11 @@
         <v>-1492757.068052332</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>458</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11846,17 +11042,11 @@
         <v>-1624578.462652332</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>458</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11888,14 +11078,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>458</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11927,14 +11111,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>458</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11966,14 +11144,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>458</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12002,19 +11174,11 @@
         <v>-1631140.075652333</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>458</v>
-      </c>
-      <c r="J315" t="n">
-        <v>458</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12043,19 +11207,11 @@
         <v>-1631135.590952333</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>459</v>
-      </c>
-      <c r="J316" t="n">
-        <v>458</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12084,19 +11240,11 @@
         <v>-1631135.590952333</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>462</v>
-      </c>
-      <c r="J317" t="n">
-        <v>458</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12125,19 +11273,11 @@
         <v>-1650171.453052333</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>462</v>
-      </c>
-      <c r="J318" t="n">
-        <v>458</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12166,19 +11306,11 @@
         <v>-1650171.453052333</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>458</v>
-      </c>
-      <c r="J319" t="n">
-        <v>458</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12207,19 +11339,11 @@
         <v>-1647991.453052333</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>458</v>
-      </c>
-      <c r="J320" t="n">
-        <v>458</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12248,19 +11372,11 @@
         <v>-1648293.900552333</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>459</v>
-      </c>
-      <c r="J321" t="n">
-        <v>458</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12289,19 +11405,11 @@
         <v>-1648293.900552333</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>458</v>
-      </c>
-      <c r="J322" t="n">
-        <v>458</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12330,25 +11438,17 @@
         <v>-1648293.900552333</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>458</v>
-      </c>
-      <c r="J323" t="n">
-        <v>458</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
       <c r="M323" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest DAD.xlsx
+++ b/BackTest/2019-10-30 BackTest DAD.xlsx
@@ -550,7 +550,7 @@
         <v>502600.1574317212</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>526030.4875317212</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>523216.1117317213</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>503648.7203317212</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>494096.3924317213</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>531418.9477317212</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>516033.9119317212</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,17 +880,11 @@
         <v>516700.0881317212</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>455</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -919,17 +913,11 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>463</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -958,17 +946,11 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>460</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -997,17 +979,11 @@
         <v>503568.4458317212</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>460</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1036,17 +1012,11 @@
         <v>508515.2754367102</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>459</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1075,15 +1045,11 @@
         <v>500303.3404932322</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1112,15 +1078,11 @@
         <v>457421.1006932322</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1149,15 +1111,11 @@
         <v>462925.6530932322</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1186,15 +1144,11 @@
         <v>465248.8745932322</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1223,17 +1177,11 @@
         <v>338937.3841932322</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1262,17 +1210,11 @@
         <v>322702.5767932322</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1309,7 +1251,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1418,11 +1360,9 @@
         <v>390309.1049051622</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1457,11 +1397,9 @@
         <v>403112.9009882432</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1533,7 +1471,7 @@
         <v>386784.7400314112</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1607,7 +1545,7 @@
         <v>388715.1761314112</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1681,11 +1619,9 @@
         <v>391752.3034314112</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1720,20 +1656,16 @@
         <v>391299.7853314112</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>459</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1759,17 +1691,11 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>457</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1798,17 +1724,11 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1837,17 +1757,11 @@
         <v>380460.6725314112</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1884,7 +1798,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -2032,11 +1946,9 @@
         <v>392803.0207314112</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>458</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2071,11 +1983,9 @@
         <v>390465.5971314112</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>460</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2110,11 +2020,9 @@
         <v>402954.4705314112</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>453</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2149,11 +2057,9 @@
         <v>402958.0030314112</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>454</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2188,11 +2094,9 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2227,11 +2131,9 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>457</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2266,11 +2168,9 @@
         <v>393341.4250314111</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2734,9 +2634,11 @@
         <v>371794.0101024471</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>457</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2771,9 +2673,11 @@
         <v>374290.9296024471</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>458</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2808,9 +2712,11 @@
         <v>373755.8678024471</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>460</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2845,9 +2751,11 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>458</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2882,9 +2790,11 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>461</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2919,9 +2829,11 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>461</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2956,9 +2868,11 @@
         <v>375344.4547024471</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>461</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3032,9 +2946,11 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>458</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3108,9 +3024,11 @@
         <v>365910.8347024471</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>457</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3418,9 +3336,11 @@
         <v>5864063.074517044</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>455</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3455,9 +3375,11 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>456</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3492,9 +3414,11 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>455</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3529,9 +3453,11 @@
         <v>6587542.353598008</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>455</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3566,18 +3492,16 @@
         <v>6587542.353598008</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -3603,15 +3527,11 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3640,15 +3560,11 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3677,15 +3593,11 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3718,12 +3630,10 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3914,7 +3824,7 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3947,7 +3857,7 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4112,7 +4022,7 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4145,7 +4055,7 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4211,7 +4121,7 @@
         <v>8459748.593442693</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4244,7 +4154,7 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4277,7 +4187,7 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4310,7 +4220,7 @@
         <v>8461208.379705381</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4343,7 +4253,7 @@
         <v>8468172.037305381</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4376,7 +4286,7 @@
         <v>8488137.066568067</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4409,7 +4319,7 @@
         <v>8518748.788117331</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4673,7 +4583,7 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4739,7 +4649,7 @@
         <v>8570763.791769946</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4772,7 +4682,7 @@
         <v>8568740.123769946</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4805,7 +4715,7 @@
         <v>8569626.532469947</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4838,7 +4748,7 @@
         <v>8568900.852269948</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4871,7 +4781,7 @@
         <v>8558561.818569947</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4904,7 +4814,7 @@
         <v>8563394.770860434</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4937,7 +4847,7 @@
         <v>8562255.287660433</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4970,7 +4880,7 @@
         <v>8556491.109160433</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5003,7 +4913,7 @@
         <v>8551269.928960433</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5036,7 +4946,7 @@
         <v>8516387.201660434</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5069,7 +4979,7 @@
         <v>8518334.303460434</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5399,7 +5309,7 @@
         <v>9830763.311660431</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5432,7 +5342,7 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5465,7 +5375,7 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5498,7 +5408,7 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -9095,7 +9005,7 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9128,7 +9038,7 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9161,7 +9071,7 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9194,7 +9104,7 @@
         <v>3081879.191247883</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9227,7 +9137,7 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9260,7 +9170,7 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9293,7 +9203,7 @@
         <v>2813341.399147883</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9326,7 +9236,7 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9359,7 +9269,7 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9392,7 +9302,7 @@
         <v>2861342.405847883</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9425,7 +9335,7 @@
         <v>2861341.405847883</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9458,7 +9368,7 @@
         <v>2861341.405847883</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9491,7 +9401,7 @@
         <v>2994541.406747883</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9524,7 +9434,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9557,7 +9467,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9590,7 +9500,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9623,7 +9533,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9656,7 +9566,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9689,7 +9599,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9722,7 +9632,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9755,7 +9665,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9788,7 +9698,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9821,7 +9731,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9854,7 +9764,7 @@
         <v>3141306.076347883</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9887,7 +9797,7 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9920,7 +9830,7 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9953,7 +9863,7 @@
         <v>3141307.076347883</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9986,7 +9896,7 @@
         <v>3142183.882747883</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10019,7 +9929,7 @@
         <v>3142443.673847883</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10052,7 +9962,7 @@
         <v>3139068.069647883</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10085,7 +9995,7 @@
         <v>3136874.274047883</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10118,7 +10028,7 @@
         <v>3139692.211247883</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10151,7 +10061,7 @@
         <v>3137798.842847883</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10184,7 +10094,7 @@
         <v>3137800.842847883</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10217,7 +10127,7 @@
         <v>3137801.842847883</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10250,7 +10160,7 @@
         <v>3069491.222647883</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10283,7 +10193,7 @@
         <v>3018948.758047883</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10316,7 +10226,7 @@
         <v>2975437.624447883</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10349,7 +10259,7 @@
         <v>2985188.966347883</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10382,7 +10292,7 @@
         <v>2984680.170747883</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10415,7 +10325,7 @@
         <v>2984680.170747883</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10448,7 +10358,7 @@
         <v>2984681.170747883</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10481,7 +10391,7 @@
         <v>2034881.170747883</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10514,7 +10424,7 @@
         <v>2034881.170747883</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10547,7 +10457,7 @@
         <v>2238082.170747883</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10580,7 +10490,7 @@
         <v>2238092.170747883</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10613,7 +10523,7 @@
         <v>2238088.570747883</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10646,7 +10556,7 @@
         <v>2238085.070747883</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10679,7 +10589,7 @@
         <v>2252646.665547883</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10712,7 +10622,7 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10745,7 +10655,7 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10811,7 +10721,7 @@
         <v>3793868.652447883</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10844,7 +10754,7 @@
         <v>-149199.5935521168</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10877,7 +10787,7 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10910,7 +10820,7 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10943,7 +10853,7 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10976,7 +10886,7 @@
         <v>-4486250.300252117</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11042,7 +10952,7 @@
         <v>-1624578.462652332</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
